--- a/computed_files/1_2_xenon/mie_results_vle_sle_sve_fluid.xlsx
+++ b/computed_files/1_2_xenon/mie_results_vle_sle_sve_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.8423719544532996</v>
       </c>
       <c r="D2">
-        <v>300.4030918891354</v>
+        <v>300.4030918891347</v>
       </c>
       <c r="E2">
-        <v>7400789.68962511</v>
+        <v>7400789.689625033</v>
       </c>
       <c r="F2">
-        <v>8706.549647385842</v>
+        <v>8706.549647385809</v>
       </c>
       <c r="G2">
         <v>3.997113354391432</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>94.1484710142543</v>
       </c>
@@ -585,33 +597,39 @@
         <v>0.07474792914615046</v>
       </c>
       <c r="M2">
+        <v>0.07474792914615046</v>
+      </c>
+      <c r="N2">
         <v>952.3153287227159</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
-        <v>96.23182067934484</v>
+        <v>96.23182067934482</v>
       </c>
       <c r="B3">
-        <v>50.89792400868078</v>
+        <v>50.8979240086807</v>
       </c>
       <c r="C3">
-        <v>0.06361671481125852</v>
+        <v>0.06361671481125843</v>
       </c>
       <c r="D3">
         <v>27140.57409610972</v>
       </c>
       <c r="E3">
-        <v>17104.13712015291</v>
+        <v>17104.13712015292</v>
       </c>
       <c r="F3">
         <v>16304.06743946635</v>
       </c>
       <c r="G3">
-        <v>49.42407058397399</v>
+        <v>49.42407058397391</v>
       </c>
       <c r="H3">
-        <v>149.4982832018215</v>
+        <v>149.4982832018214</v>
       </c>
       <c r="I3">
         <v>9.453288418147318E-10</v>
@@ -626,18 +644,24 @@
         <v>0.07421880668026208</v>
       </c>
       <c r="M3">
-        <v>903.7228464552692</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.07421880668026208</v>
+      </c>
+      <c r="N3">
+        <v>903.7228464552697</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>98.31517034443536</v>
+        <v>98.31517034443534</v>
       </c>
       <c r="B4">
-        <v>79.74301698405372</v>
+        <v>79.74301698405449</v>
       </c>
       <c r="C4">
-        <v>0.09756037267803874</v>
+        <v>0.09756037267803969</v>
       </c>
       <c r="D4">
         <v>26845.41264883302</v>
@@ -646,80 +670,92 @@
         <v>16799.51112434308</v>
       </c>
       <c r="F4">
-        <v>15982.14311931439</v>
+        <v>15982.14311931438</v>
       </c>
       <c r="G4">
-        <v>51.27786986755142</v>
+        <v>51.27786986755137</v>
       </c>
       <c r="H4">
         <v>142.7631399913954</v>
       </c>
       <c r="I4">
-        <v>9.638192000528906E-10</v>
+        <v>9.638192000528922E-10</v>
       </c>
       <c r="J4">
         <v>4.352430197511249E-10</v>
       </c>
       <c r="K4">
-        <v>0.002175037433009282</v>
+        <v>0.002175037433009283</v>
       </c>
       <c r="L4">
-        <v>0.07377164373989159</v>
+        <v>0.07377164373989155</v>
       </c>
       <c r="M4">
-        <v>869.0246926460326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.07377164373989155</v>
+      </c>
+      <c r="N4">
+        <v>869.024692646032</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>100.3985200095259</v>
       </c>
       <c r="B5">
-        <v>121.7079353770992</v>
+        <v>121.7079353770988</v>
       </c>
       <c r="C5">
-        <v>0.145817125072599</v>
+        <v>0.1458171250725986</v>
       </c>
       <c r="D5">
-        <v>26566.81839688849</v>
+        <v>26566.8183968885</v>
       </c>
       <c r="E5">
         <v>16509.51980539604</v>
       </c>
       <c r="F5">
-        <v>15674.86292062285</v>
+        <v>15674.86292062286</v>
       </c>
       <c r="G5">
-        <v>51.67550328452457</v>
+        <v>51.67550328452473</v>
       </c>
       <c r="H5">
-        <v>135.4732725549533</v>
+        <v>135.4732725549536</v>
       </c>
       <c r="I5">
-        <v>9.821196027859919E-10</v>
+        <v>9.82119602785991E-10</v>
       </c>
       <c r="J5">
-        <v>4.490978491622972E-10</v>
+        <v>4.49097849162297E-10</v>
       </c>
       <c r="K5">
-        <v>0.002174886684182461</v>
+        <v>0.002174886684182463</v>
       </c>
       <c r="L5">
-        <v>0.07340114385709412</v>
+        <v>0.07340114385709415</v>
       </c>
       <c r="M5">
-        <v>843.2600477330324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.07340114385709415</v>
+      </c>
+      <c r="N5">
+        <v>843.2600477330323</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>102.4818696746164</v>
       </c>
       <c r="B6">
-        <v>181.3427423333492</v>
+        <v>181.3427423333482</v>
       </c>
       <c r="C6">
-        <v>0.212858471015884</v>
+        <v>0.212858471015883</v>
       </c>
       <c r="D6">
         <v>26303.36235910179</v>
@@ -731,39 +767,45 @@
         <v>15383.09987762835</v>
       </c>
       <c r="G6">
-        <v>50.97817025944128</v>
+        <v>50.97817025944136</v>
       </c>
       <c r="H6">
-        <v>127.8875363071962</v>
+        <v>127.8875363071963</v>
       </c>
       <c r="I6">
         <v>1.000297488355781E-09</v>
       </c>
       <c r="J6">
-        <v>4.636119373229683E-10</v>
+        <v>4.636119373229674E-10</v>
       </c>
       <c r="K6">
-        <v>0.002165127577786992</v>
+        <v>0.002165127577786991</v>
       </c>
       <c r="L6">
-        <v>0.07310237161532536</v>
+        <v>0.07310237161532537</v>
       </c>
       <c r="M6">
+        <v>0.07310237161532537</v>
+      </c>
+      <c r="N6">
         <v>823.5893213498009</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>104.5652193397069</v>
       </c>
       <c r="B7">
-        <v>264.2908173316182</v>
+        <v>264.2908173316144</v>
       </c>
       <c r="C7">
-        <v>0.3040604308003719</v>
+        <v>0.3040604308003677</v>
       </c>
       <c r="D7">
-        <v>26053.75007665648</v>
+        <v>26053.7500766565</v>
       </c>
       <c r="E7">
         <v>15976.4350488514</v>
@@ -772,77 +814,89 @@
         <v>15107.24028952418</v>
       </c>
       <c r="G7">
-        <v>49.48428273207077</v>
+        <v>49.48428273207085</v>
       </c>
       <c r="H7">
-        <v>120.2145260902669</v>
+        <v>120.2145260902672</v>
       </c>
       <c r="I7">
-        <v>1.018420450670885E-09</v>
+        <v>1.018420450670882E-09</v>
       </c>
       <c r="J7">
-        <v>4.788507096749363E-10</v>
+        <v>4.788507096749356E-10</v>
       </c>
       <c r="K7">
-        <v>0.002145401530644932</v>
+        <v>0.002145401530644935</v>
       </c>
       <c r="L7">
-        <v>0.07287046002543547</v>
+        <v>0.0728704600254355</v>
       </c>
       <c r="M7">
-        <v>808.2571230245018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.0728704600254355</v>
+      </c>
+      <c r="N7">
+        <v>808.2571230245031</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>106.6485690047975</v>
+        <v>106.6485690047974</v>
       </c>
       <c r="B8">
-        <v>377.4310426522401</v>
+        <v>377.4310426522439</v>
       </c>
       <c r="C8">
-        <v>0.4257775305693532</v>
+        <v>0.4257775305693577</v>
       </c>
       <c r="D8">
         <v>25816.8071356922</v>
       </c>
       <c r="E8">
-        <v>15733.71991533839</v>
+        <v>15733.71991533841</v>
       </c>
       <c r="F8">
-        <v>14847.28324145674</v>
+        <v>14847.28324145675</v>
       </c>
       <c r="G8">
-        <v>47.43619174190935</v>
+        <v>47.43619174190927</v>
       </c>
       <c r="H8">
-        <v>112.617698306239</v>
+        <v>112.6176983062389</v>
       </c>
       <c r="I8">
-        <v>1.036555743145865E-09</v>
+        <v>1.036555743145866E-09</v>
       </c>
       <c r="J8">
         <v>4.948835073424136E-10</v>
       </c>
       <c r="K8">
-        <v>0.002115490772005108</v>
+        <v>0.002115490772005107</v>
       </c>
       <c r="L8">
-        <v>0.07270035752648779</v>
+        <v>0.07270035752648778</v>
       </c>
       <c r="M8">
-        <v>796.1113418747474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.07270035752648778</v>
+      </c>
+      <c r="N8">
+        <v>796.1113418747473</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>108.731918669888</v>
+        <v>108.7319186698879</v>
       </c>
       <c r="B9">
-        <v>529.0192266435988</v>
+        <v>529.0192266435965</v>
       </c>
       <c r="C9">
-        <v>0.5854083363617623</v>
+        <v>0.58540833636176</v>
       </c>
       <c r="D9">
         <v>25591.46643641504</v>
@@ -854,36 +908,42 @@
         <v>14602.9285975928</v>
       </c>
       <c r="G9">
-        <v>45.02740208131236</v>
+        <v>45.02740208131271</v>
       </c>
       <c r="H9">
-        <v>105.2211924637893</v>
+        <v>105.2211924637899</v>
       </c>
       <c r="I9">
-        <v>1.054769900177967E-09</v>
+        <v>1.054769900177968E-09</v>
       </c>
       <c r="J9">
-        <v>5.117837163773243E-10</v>
+        <v>5.117837163773239E-10</v>
       </c>
       <c r="K9">
-        <v>0.002075355653140529</v>
+        <v>0.002075355653140527</v>
       </c>
       <c r="L9">
-        <v>0.07258663734443101</v>
+        <v>0.07258663734443098</v>
       </c>
       <c r="M9">
-        <v>786.3577889178307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.07258663734443098</v>
+      </c>
+      <c r="N9">
+        <v>786.3577889178295</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>110.8152683349785</v>
       </c>
       <c r="B10">
-        <v>728.8270394206049</v>
+        <v>728.8270394205922</v>
       </c>
       <c r="C10">
-        <v>0.791452062932128</v>
+        <v>0.7914520629321147</v>
       </c>
       <c r="D10">
         <v>25376.75697232778</v>
@@ -892,95 +952,107 @@
         <v>15294.49719248711</v>
       </c>
       <c r="F10">
-        <v>14373.65265508724</v>
+        <v>14373.65265508725</v>
       </c>
       <c r="G10">
-        <v>42.40972144257104</v>
+        <v>42.40972144257113</v>
       </c>
       <c r="H10">
-        <v>98.11577060666808</v>
+        <v>98.11577060666824</v>
       </c>
       <c r="I10">
-        <v>1.07312846848696E-09</v>
+        <v>1.073128468486959E-09</v>
       </c>
       <c r="J10">
-        <v>5.296288695742858E-10</v>
+        <v>5.296288695742853E-10</v>
       </c>
       <c r="K10">
-        <v>0.00202517993657082</v>
+        <v>0.002025179936570821</v>
       </c>
       <c r="L10">
-        <v>0.07252338706870132</v>
+        <v>0.07252338706870133</v>
       </c>
       <c r="M10">
-        <v>778.4255656731339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.07252338706870133</v>
+      </c>
+      <c r="N10">
+        <v>778.4255656731341</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>112.898618000069</v>
       </c>
       <c r="B11">
-        <v>988.2768964116264</v>
+        <v>988.2768964115789</v>
       </c>
       <c r="C11">
-        <v>1.053556072192512</v>
+        <v>1.053556072192462</v>
       </c>
       <c r="D11">
-        <v>25171.79391593779</v>
+        <v>25171.7939159378</v>
       </c>
       <c r="E11">
-        <v>15096.77158215785</v>
+        <v>15096.77158215786</v>
       </c>
       <c r="F11">
         <v>14158.77164215974</v>
       </c>
       <c r="G11">
-        <v>39.69998680507876</v>
+        <v>39.69998680507874</v>
       </c>
       <c r="H11">
-        <v>91.36449293739433</v>
+        <v>91.3644929373944</v>
       </c>
       <c r="I11">
-        <v>1.091695839777501E-09</v>
+        <v>1.091695839777503E-09</v>
       </c>
       <c r="J11">
-        <v>5.485007127541693E-10</v>
+        <v>5.485007127541692E-10</v>
       </c>
       <c r="K11">
         <v>0.001965418061602872</v>
       </c>
       <c r="L11">
-        <v>0.07250418790974167</v>
+        <v>0.07250418790974165</v>
       </c>
       <c r="M11">
-        <v>771.8888813361643</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.07250418790974165</v>
+      </c>
+      <c r="N11">
+        <v>771.8888813361641</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>114.9819676651596</v>
+        <v>114.9819676651595</v>
       </c>
       <c r="B12">
-        <v>1320.571371367385</v>
+        <v>1320.571371367406</v>
       </c>
       <c r="C12">
-        <v>1.38255430286522</v>
+        <v>1.382554302865243</v>
       </c>
       <c r="D12">
         <v>24975.76984047716</v>
       </c>
       <c r="E12">
-        <v>14912.60881183042</v>
+        <v>14912.60881183041</v>
       </c>
       <c r="F12">
-        <v>13957.49387177735</v>
+        <v>13957.49387177733</v>
       </c>
       <c r="G12">
-        <v>36.98616321016661</v>
+        <v>36.98616321016668</v>
       </c>
       <c r="H12">
-        <v>85.00790356604931</v>
+        <v>85.00790356604951</v>
       </c>
       <c r="I12">
         <v>1.110535173995229E-09</v>
@@ -992,103 +1064,121 @@
         <v>0.00189683485350311</v>
       </c>
       <c r="L12">
-        <v>0.07252218252678551</v>
+        <v>0.07252218252678549</v>
       </c>
       <c r="M12">
+        <v>0.07252218252678549</v>
+      </c>
+      <c r="N12">
         <v>766.419608457707</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>117.0653173302501</v>
+        <v>117.06531733025</v>
       </c>
       <c r="B13">
-        <v>1740.815843135983</v>
+        <v>1740.815843135959</v>
       </c>
       <c r="C13">
-        <v>1.790496835810231</v>
+        <v>1.790496835810207</v>
       </c>
       <c r="D13">
-        <v>24787.94693172584</v>
+        <v>24787.94693172585</v>
       </c>
       <c r="E13">
-        <v>14741.14443692177</v>
+        <v>14741.1444369218</v>
       </c>
       <c r="F13">
-        <v>13768.96170820331</v>
+        <v>13768.96170820333</v>
       </c>
       <c r="G13">
-        <v>34.33272109567777</v>
+        <v>34.332721095678</v>
       </c>
       <c r="H13">
-        <v>79.06861413480406</v>
+        <v>79.06861413480439</v>
       </c>
       <c r="I13">
         <v>1.129708402202349E-09</v>
       </c>
       <c r="J13">
-        <v>5.896725941097421E-10</v>
+        <v>5.89672594109742E-10</v>
       </c>
       <c r="K13">
-        <v>0.001820525678188733</v>
+        <v>0.001820525678188736</v>
       </c>
       <c r="L13">
         <v>0.07257021952564027</v>
       </c>
       <c r="M13">
-        <v>761.7575270731517</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.07257021952564027</v>
+      </c>
+      <c r="N13">
+        <v>761.757527073151</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>119.1486669953406</v>
       </c>
       <c r="B14">
-        <v>2266.133196644344</v>
+        <v>2266.133196644364</v>
       </c>
       <c r="C14">
-        <v>2.290670924854233</v>
+        <v>2.290670924854254</v>
       </c>
       <c r="D14">
-        <v>24607.65006533052</v>
+        <v>24607.65006533053</v>
       </c>
       <c r="E14">
         <v>14581.48053338368</v>
       </c>
       <c r="F14">
-        <v>13592.28465070664</v>
+        <v>13592.28465070665</v>
       </c>
       <c r="G14">
-        <v>31.78527432993415</v>
+        <v>31.78527432993422</v>
       </c>
       <c r="H14">
-        <v>73.55525149868939</v>
+        <v>73.55525149868964</v>
       </c>
       <c r="I14">
-        <v>1.149276298143768E-09</v>
+        <v>1.149276298143767E-09</v>
       </c>
       <c r="J14">
-        <v>6.121571050673445E-10</v>
+        <v>6.121571050673443E-10</v>
       </c>
       <c r="K14">
-        <v>0.001737905077023193</v>
+        <v>0.001737905077023196</v>
       </c>
       <c r="L14">
-        <v>0.07264105384671113</v>
+        <v>0.07264105384671116</v>
       </c>
       <c r="M14">
-        <v>757.6912373216097</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.07264105384671116</v>
+      </c>
+      <c r="N14">
+        <v>757.6912373216103</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>121.2320166604312</v>
+        <v>121.2320166604311</v>
       </c>
       <c r="B15">
         <v>2915.769515921877</v>
       </c>
       <c r="C15">
-        <v>2.897613923323958</v>
+        <v>2.897613923323961</v>
       </c>
       <c r="D15">
         <v>24434.26064269262</v>
@@ -1100,39 +1190,45 @@
         <v>13426.56485226254</v>
       </c>
       <c r="G15">
-        <v>29.37450947116324</v>
+        <v>29.37450947116337</v>
       </c>
       <c r="H15">
-        <v>68.46578617563277</v>
+        <v>68.46578617563307</v>
       </c>
       <c r="I15">
-        <v>1.169298608129163E-09</v>
+        <v>1.169298608129164E-09</v>
       </c>
       <c r="J15">
-        <v>6.360369854378315E-10</v>
+        <v>6.360369854378302E-10</v>
       </c>
       <c r="K15">
-        <v>0.001650655652422632</v>
+        <v>0.001650655652422634</v>
       </c>
       <c r="L15">
         <v>0.07272757678875055</v>
       </c>
       <c r="M15">
-        <v>754.0457643513921</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.07272757678875055</v>
+      </c>
+      <c r="N15">
+        <v>754.0457643513919</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>123.3153663255217</v>
+        <v>123.3153663255216</v>
       </c>
       <c r="B16">
-        <v>3711.189832885337</v>
+        <v>3711.189832885268</v>
       </c>
       <c r="C16">
-        <v>3.627118621840633</v>
+        <v>3.62711862184057</v>
       </c>
       <c r="D16">
-        <v>24267.21109331479</v>
+        <v>24267.2110933148</v>
       </c>
       <c r="E16">
         <v>14293.94190318788</v>
@@ -1141,39 +1237,45 @@
         <v>13270.91632179531</v>
       </c>
       <c r="G16">
-        <v>27.11946470526866</v>
+        <v>27.11946470526876</v>
       </c>
       <c r="H16">
-        <v>63.79028807082219</v>
+        <v>63.79028807082237</v>
       </c>
       <c r="I16">
         <v>1.189834229735284E-09</v>
       </c>
       <c r="J16">
-        <v>6.614141442020137E-10</v>
+        <v>6.614141442020125E-10</v>
       </c>
       <c r="K16">
-        <v>0.001560636562056556</v>
+        <v>0.00156063656205656</v>
       </c>
       <c r="L16">
         <v>0.07282304789376011</v>
       </c>
       <c r="M16">
-        <v>750.6744892957842</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.07282304789376011</v>
+      </c>
+      <c r="N16">
+        <v>750.6744892957837</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>125.3987159906122</v>
+        <v>125.3987159906121</v>
       </c>
       <c r="B17">
-        <v>4676.163133753269</v>
+        <v>4676.163133753239</v>
       </c>
       <c r="C17">
-        <v>4.49623158852885</v>
+        <v>4.496231588528825</v>
       </c>
       <c r="D17">
-        <v>24105.97996395798</v>
+        <v>24105.979963958</v>
       </c>
       <c r="E17">
         <v>14164.30325976587</v>
@@ -1182,121 +1284,139 @@
         <v>13124.47894314674</v>
       </c>
       <c r="G17">
-        <v>25.03023044735689</v>
+        <v>25.03023044735693</v>
       </c>
       <c r="H17">
-        <v>59.51317113008796</v>
+        <v>59.5131711300882</v>
       </c>
       <c r="I17">
-        <v>1.210941430915056E-09</v>
+        <v>1.210941430915052E-09</v>
       </c>
       <c r="J17">
-        <v>6.883938275319561E-10</v>
+        <v>6.88393827531954E-10</v>
       </c>
       <c r="K17">
-        <v>0.0014697608433107</v>
+        <v>0.001469760843310708</v>
       </c>
       <c r="L17">
-        <v>0.07292130300802037</v>
+        <v>0.07292130300802038</v>
       </c>
       <c r="M17">
-        <v>747.4539252677173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.07292130300802038</v>
+      </c>
+      <c r="N17">
+        <v>747.453925267719</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>127.4820656557028</v>
+        <v>127.4820656557026</v>
       </c>
       <c r="B18">
-        <v>5836.83597594655</v>
+        <v>5836.835975946449</v>
       </c>
       <c r="C18">
-        <v>5.523245170406963</v>
+        <v>5.523245170406871</v>
       </c>
       <c r="D18">
         <v>23950.08752549319</v>
       </c>
       <c r="E18">
-        <v>14042.9611495001</v>
+        <v>14042.96114950012</v>
       </c>
       <c r="F18">
-        <v>12986.42830783769</v>
+        <v>12986.42830783771</v>
       </c>
       <c r="G18">
-        <v>23.11014752901138</v>
+        <v>23.11014752901146</v>
       </c>
       <c r="H18">
-        <v>55.61499391323517</v>
+        <v>55.61499391323537</v>
       </c>
       <c r="I18">
-        <v>1.232678102288038E-09</v>
+        <v>1.232678102288037E-09</v>
       </c>
       <c r="J18">
-        <v>7.170841733089614E-10</v>
+        <v>7.170841733089606E-10</v>
       </c>
       <c r="K18">
-        <v>0.001379859762070508</v>
+        <v>0.001379859762070512</v>
       </c>
       <c r="L18">
         <v>0.07301691764378102</v>
       </c>
       <c r="M18">
-        <v>744.2803618075877</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.07301691764378102</v>
+      </c>
+      <c r="N18">
+        <v>744.2803618075882</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>129.5654153207933</v>
+        <v>129.5654153207932</v>
       </c>
       <c r="B19">
-        <v>7221.794230107475</v>
+        <v>7221.794230107315</v>
       </c>
       <c r="C19">
-        <v>6.727683873878854</v>
+        <v>6.727683873878712</v>
       </c>
       <c r="D19">
         <v>23799.09183727179</v>
       </c>
       <c r="E19">
-        <v>13929.12311816275</v>
+        <v>13929.12311816277</v>
       </c>
       <c r="F19">
-        <v>12855.98221838646</v>
+        <v>12855.98221838648</v>
       </c>
       <c r="G19">
-        <v>21.35757682333353</v>
+        <v>21.35757682333375</v>
       </c>
       <c r="H19">
-        <v>52.07388221844106</v>
+        <v>52.07388221844131</v>
       </c>
       <c r="I19">
         <v>1.255102036606135E-09</v>
       </c>
       <c r="J19">
-        <v>7.475956605279494E-10</v>
+        <v>7.475956605279479E-10</v>
       </c>
       <c r="K19">
-        <v>0.001292556920263765</v>
+        <v>0.001292556920263768</v>
       </c>
       <c r="L19">
-        <v>0.07310531125808854</v>
+        <v>0.07310531125808852</v>
       </c>
       <c r="M19">
-        <v>741.067701459193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.07310531125808852</v>
+      </c>
+      <c r="N19">
+        <v>741.0677014591918</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>131.6487649858838</v>
+        <v>131.6487649858837</v>
       </c>
       <c r="B20">
-        <v>8862.112630579257</v>
+        <v>8862.112630579189</v>
       </c>
       <c r="C20">
-        <v>8.130285891367841</v>
+        <v>8.130285891367787</v>
       </c>
       <c r="D20">
-        <v>23652.58521646395</v>
+        <v>23652.58521646396</v>
       </c>
       <c r="E20">
         <v>13822.04232997693</v>
@@ -1305,80 +1425,92 @@
         <v>12732.40458457433</v>
       </c>
       <c r="G20">
-        <v>19.76730864444122</v>
+        <v>19.76730864444121</v>
       </c>
       <c r="H20">
-        <v>48.8666354191156</v>
+        <v>48.86663541911566</v>
       </c>
       <c r="I20">
-        <v>1.278271230585446E-09</v>
+        <v>1.278271230585445E-09</v>
       </c>
       <c r="J20">
-        <v>7.800404509134206E-10</v>
+        <v>7.800404509134189E-10</v>
       </c>
       <c r="K20">
-        <v>0.001209172875941627</v>
+        <v>0.001209172875941631</v>
       </c>
       <c r="L20">
-        <v>0.0731827853003925</v>
+        <v>0.07318278530039249</v>
       </c>
       <c r="M20">
-        <v>737.7460027162676</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.07318278530039249</v>
+      </c>
+      <c r="N20">
+        <v>737.7460027162681</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>133.7321146509743</v>
+        <v>133.7321146509742</v>
       </c>
       <c r="B21">
-        <v>10791.39198845514</v>
+        <v>10791.39198845512</v>
       </c>
       <c r="C21">
-        <v>9.752980578417931</v>
+        <v>9.752980578417922</v>
       </c>
       <c r="D21">
-        <v>23510.19106634841</v>
+        <v>23510.19106634842</v>
       </c>
       <c r="E21">
-        <v>13721.01948918465</v>
+        <v>13721.01948918466</v>
       </c>
       <c r="F21">
-        <v>12615.0073122131</v>
+        <v>12615.00731221311</v>
       </c>
       <c r="G21">
-        <v>18.33167304474588</v>
+        <v>18.33167304474613</v>
       </c>
       <c r="H21">
-        <v>45.96957186433819</v>
+        <v>45.9695718643385</v>
       </c>
       <c r="I21">
-        <v>1.302244205434097E-09</v>
+        <v>1.302244205434098E-09</v>
       </c>
       <c r="J21">
-        <v>8.145316234855269E-10</v>
+        <v>8.145316234855253E-10</v>
       </c>
       <c r="K21">
-        <v>0.001130673155129056</v>
+        <v>0.001130673155129058</v>
       </c>
       <c r="L21">
-        <v>0.07324649507258026</v>
+        <v>0.07324649507258024</v>
       </c>
       <c r="M21">
-        <v>734.2603763470373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.07324649507258024</v>
+      </c>
+      <c r="N21">
+        <v>734.2603763470357</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>135.8154643160649</v>
+        <v>135.8154643160647</v>
       </c>
       <c r="B22">
-        <v>13045.78408896898</v>
+        <v>13045.78408896894</v>
       </c>
       <c r="C22">
-        <v>11.61886270961555</v>
+        <v>11.61886270961552</v>
       </c>
       <c r="D22">
-        <v>23371.56102316156</v>
+        <v>23371.56102316157</v>
       </c>
       <c r="E22">
         <v>13625.40324640831</v>
@@ -1387,3264 +1519,3744 @@
         <v>12503.15067524761</v>
       </c>
       <c r="G22">
-        <v>17.0414043592309</v>
+        <v>17.04140435923106</v>
       </c>
       <c r="H22">
-        <v>43.35916169970631</v>
+        <v>43.3591616997065</v>
       </c>
       <c r="I22">
         <v>1.327080343465683E-09</v>
       </c>
       <c r="J22">
-        <v>8.51182306875433E-10</v>
+        <v>8.511823068754312E-10</v>
       </c>
       <c r="K22">
-        <v>0.001057661855763162</v>
+        <v>0.001057661855763166</v>
       </c>
       <c r="L22">
-        <v>0.0732943619169648</v>
+        <v>0.07329436191696476</v>
       </c>
       <c r="M22">
-        <v>730.5699849461729</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.07329436191696476</v>
+      </c>
+      <c r="N22">
+        <v>730.5699849461718</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>137.8988139811554</v>
+        <v>137.8988139811552</v>
       </c>
       <c r="B23">
-        <v>15664.00445468124</v>
+        <v>15664.0044546811</v>
       </c>
       <c r="C23">
-        <v>13.75216435176204</v>
+        <v>13.75216435176193</v>
       </c>
       <c r="D23">
         <v>23236.37238597528</v>
       </c>
       <c r="E23">
-        <v>13534.58948595264</v>
+        <v>13534.58948595266</v>
       </c>
       <c r="F23">
-        <v>12396.24256805869</v>
+        <v>12396.24256805871</v>
       </c>
       <c r="G23">
-        <v>15.8863057098121</v>
+        <v>15.88630570981235</v>
       </c>
       <c r="H23">
-        <v>41.01248850260218</v>
+        <v>41.0124885026025</v>
       </c>
       <c r="I23">
-        <v>1.35284023915877E-09</v>
+        <v>1.352840239158771E-09</v>
       </c>
       <c r="J23">
-        <v>8.901047187917664E-10</v>
+        <v>8.901047187917638E-10</v>
       </c>
       <c r="K23">
-        <v>0.0009904134575276214</v>
+        <v>0.0009904134575276248</v>
       </c>
       <c r="L23">
-        <v>0.07332493741328439</v>
+        <v>0.07332493741328434</v>
       </c>
       <c r="M23">
-        <v>726.6469819932039</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.07332493741328434</v>
+      </c>
+      <c r="N23">
+        <v>726.6469819932023</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>139.9821636462459</v>
+        <v>139.9821636462458</v>
       </c>
       <c r="B24">
-        <v>18687.33330336615</v>
+        <v>18687.33330336589</v>
       </c>
       <c r="C24">
-        <v>16.17822518895276</v>
+        <v>16.17822518895255</v>
       </c>
       <c r="D24">
-        <v>23104.32579829105</v>
+        <v>23104.32579829106</v>
       </c>
       <c r="E24">
-        <v>13448.01981050027</v>
+        <v>13448.01981050029</v>
       </c>
       <c r="F24">
-        <v>12293.73695509415</v>
+        <v>12293.73695509417</v>
       </c>
       <c r="G24">
-        <v>14.85575208097188</v>
+        <v>14.85575208097202</v>
       </c>
       <c r="H24">
-        <v>38.90757460531067</v>
+        <v>38.90757460531089</v>
       </c>
       <c r="I24">
-        <v>1.379586063903726E-09</v>
+        <v>1.379586063903724E-09</v>
       </c>
       <c r="J24">
-        <v>9.314091270132583E-10</v>
+        <v>9.314091270132558E-10</v>
       </c>
       <c r="K24">
-        <v>0.0009289297477779096</v>
+        <v>0.0009289297477779135</v>
       </c>
       <c r="L24">
         <v>0.07333723468803248</v>
       </c>
       <c r="M24">
+        <v>0.07333723468803248</v>
+      </c>
+      <c r="N24">
         <v>722.4753014773081</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>142.0655133113364</v>
+        <v>142.0655133113363</v>
       </c>
       <c r="B25">
-        <v>22159.60516136843</v>
+        <v>22159.60516136844</v>
       </c>
       <c r="C25">
-        <v>18.923462117477</v>
+        <v>18.92346211747704</v>
       </c>
       <c r="D25">
-        <v>22975.14315371105</v>
+        <v>22975.14315371107</v>
       </c>
       <c r="E25">
-        <v>13365.17947303785</v>
+        <v>13365.17947303784</v>
       </c>
       <c r="F25">
         <v>12195.13176828041</v>
       </c>
       <c r="G25">
-        <v>13.93906420495679</v>
+        <v>13.93906420495694</v>
       </c>
       <c r="H25">
-        <v>37.02359910841366</v>
+        <v>37.02359910841389</v>
       </c>
       <c r="I25">
-        <v>1.407381944473812E-09</v>
+        <v>1.407381944473806E-09</v>
       </c>
       <c r="J25">
-        <v>9.75202751390205E-10</v>
+        <v>9.75202751390201E-10</v>
       </c>
       <c r="K25">
-        <v>0.0008730076594858075</v>
+        <v>0.0008730076594858133</v>
       </c>
       <c r="L25">
-        <v>0.0733305434264591</v>
+        <v>0.07333054342645913</v>
       </c>
       <c r="M25">
-        <v>718.0492721661642</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>0.07333054342645913</v>
+      </c>
+      <c r="N25">
+        <v>718.0492721661649</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>144.148862976427</v>
+        <v>144.1488629764268</v>
       </c>
       <c r="B26">
-        <v>26127.18770716231</v>
+        <v>26127.18770716221</v>
       </c>
       <c r="C26">
-        <v>22.01533890033317</v>
+        <v>22.01533890033311</v>
       </c>
       <c r="D26">
-        <v>22848.56570125373</v>
+        <v>22848.56570125374</v>
       </c>
       <c r="E26">
-        <v>13285.59495085196</v>
+        <v>13285.59495085197</v>
       </c>
       <c r="F26">
-        <v>12099.96644760169</v>
+        <v>12099.9664476017</v>
       </c>
       <c r="G26">
-        <v>13.12577991783582</v>
+        <v>13.12577991783601</v>
       </c>
       <c r="H26">
-        <v>35.34103244322311</v>
+        <v>35.34103244322341</v>
       </c>
       <c r="I26">
-        <v>1.436294355977197E-09</v>
+        <v>1.436294355977194E-09</v>
       </c>
       <c r="J26">
-        <v>1.021588631285299E-09</v>
+        <v>1.021588631285294E-09</v>
       </c>
       <c r="K26">
-        <v>0.0008223062111622794</v>
+        <v>0.0008223062111622848</v>
       </c>
       <c r="L26">
-        <v>0.07330424483603892</v>
+        <v>0.07330424483603895</v>
       </c>
       <c r="M26">
-        <v>713.3720797805249</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.07330424483603895</v>
+      </c>
+      <c r="N26">
+        <v>713.3720797805247</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>146.2322126415175</v>
+        <v>146.2322126415173</v>
       </c>
       <c r="B27">
-        <v>30638.95051443678</v>
+        <v>30638.95051443648</v>
       </c>
       <c r="C27">
-        <v>25.48233663358383</v>
+        <v>25.48233663358361</v>
       </c>
       <c r="D27">
-        <v>22724.35232868965</v>
+        <v>22724.35232868966</v>
       </c>
       <c r="E27">
-        <v>13208.83131150964</v>
+        <v>13208.83131150962</v>
       </c>
       <c r="F27">
-        <v>12007.8192752346</v>
+        <v>12007.81927523458</v>
       </c>
       <c r="G27">
-        <v>12.40584485613842</v>
+        <v>12.40584485613845</v>
       </c>
       <c r="H27">
-        <v>33.84170692459518</v>
+        <v>33.84170692459528</v>
       </c>
       <c r="I27">
-        <v>1.466392530702286E-09</v>
+        <v>1.466392530702284E-09</v>
       </c>
       <c r="J27">
-        <v>1.070664487336529E-09</v>
+        <v>1.070664487336524E-09</v>
       </c>
       <c r="K27">
-        <v>0.0007764047965464955</v>
+        <v>0.0007764047965464992</v>
       </c>
       <c r="L27">
-        <v>0.07325764100674215</v>
+        <v>0.07325764100674216</v>
       </c>
       <c r="M27">
-        <v>708.4541338023006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.07325764100674216</v>
+      </c>
+      <c r="N27">
+        <v>708.454133802301</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>148.315562306608</v>
+        <v>148.3155623066078</v>
       </c>
       <c r="B28">
-        <v>35746.22443890296</v>
+        <v>35746.22443890259</v>
       </c>
       <c r="C28">
-        <v>29.35392573216629</v>
+        <v>29.35392573216602</v>
       </c>
       <c r="D28">
-        <v>22602.27800473712</v>
+        <v>22602.27800473713</v>
       </c>
       <c r="E28">
-        <v>13134.48948439872</v>
+        <v>13134.48948439874</v>
       </c>
       <c r="F28">
-        <v>11918.30461721177</v>
+        <v>11918.30461721179</v>
       </c>
       <c r="G28">
-        <v>11.76974030402108</v>
+        <v>11.7697403040211</v>
       </c>
       <c r="H28">
-        <v>32.508838998797</v>
+        <v>32.50883899879705</v>
       </c>
       <c r="I28">
-        <v>1.497748884873642E-09</v>
+        <v>1.49774888487364E-09</v>
       </c>
       <c r="J28">
-        <v>1.122521610028089E-09</v>
+        <v>1.122521610028084E-09</v>
       </c>
       <c r="K28">
-        <v>0.0007348491540040406</v>
+        <v>0.0007348491540040439</v>
       </c>
       <c r="L28">
-        <v>0.07318981035500711</v>
+        <v>0.07318981035500707</v>
       </c>
       <c r="M28">
-        <v>703.3114129871069</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.07318981035500707</v>
+      </c>
+      <c r="N28">
+        <v>703.3114129871075</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>150.3989119716986</v>
+        <v>150.3989119716984</v>
       </c>
       <c r="B29">
-        <v>41502.75244836797</v>
+        <v>41502.75244836718</v>
       </c>
       <c r="C29">
-        <v>33.66054009343858</v>
+        <v>33.66054009343797</v>
       </c>
       <c r="D29">
-        <v>22482.13236312229</v>
+        <v>22482.13236312231</v>
       </c>
       <c r="E29">
-        <v>13062.20352227345</v>
+        <v>13062.20352227346</v>
       </c>
       <c r="F29">
-        <v>11831.07015738317</v>
+        <v>11831.07015738318</v>
       </c>
       <c r="G29">
-        <v>11.20856259847381</v>
+        <v>11.20856259847388</v>
       </c>
       <c r="H29">
-        <v>31.32701576772024</v>
+        <v>31.32701576772038</v>
       </c>
       <c r="I29">
-        <v>1.530439465904779E-09</v>
+        <v>1.530439465904775E-09</v>
       </c>
       <c r="J29">
-        <v>1.177243809969439E-09</v>
+        <v>1.177243809969433E-09</v>
       </c>
       <c r="K29">
-        <v>0.0006971844935022179</v>
+        <v>0.0006971844935022221</v>
       </c>
       <c r="L29">
-        <v>0.07309949762740336</v>
+        <v>0.07309949762740342</v>
       </c>
       <c r="M29">
-        <v>697.9638663770812</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.07309949762740342</v>
+      </c>
+      <c r="N29">
+        <v>697.9638663770818</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>152.4822616367891</v>
+        <v>152.4822616367889</v>
       </c>
       <c r="B30">
-        <v>47964.63273248192</v>
+        <v>47964.63273248031</v>
       </c>
       <c r="C30">
-        <v>38.43355404514533</v>
+        <v>38.43355404514407</v>
       </c>
       <c r="D30">
-        <v>22363.71841341443</v>
+        <v>22363.71841341444</v>
       </c>
       <c r="E30">
-        <v>12991.63791411047</v>
+        <v>12991.63791411048</v>
       </c>
       <c r="F30">
-        <v>11745.79418523508</v>
+        <v>11745.79418523509</v>
       </c>
       <c r="G30">
-        <v>10.71406567332922</v>
+        <v>10.71406567332931</v>
       </c>
       <c r="H30">
-        <v>30.28215578506704</v>
+        <v>30.28215578506717</v>
       </c>
       <c r="I30">
         <v>1.56454442328112E-09</v>
       </c>
       <c r="J30">
-        <v>1.234906465715681E-09</v>
+        <v>1.234906465715679E-09</v>
       </c>
       <c r="K30">
-        <v>0.0006629771924282034</v>
+        <v>0.0006629771924282053</v>
       </c>
       <c r="L30">
-        <v>0.07298504366631776</v>
+        <v>0.07298504366631774</v>
       </c>
       <c r="M30">
-        <v>692.4339378477856</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.07298504366631774</v>
+      </c>
+      <c r="N30">
+        <v>692.433937847785</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>154.5656113018796</v>
+        <v>154.5656113018794</v>
       </c>
       <c r="B31">
-        <v>55190.25494841093</v>
+        <v>55190.25494841016</v>
       </c>
       <c r="C31">
-        <v>43.70526263292292</v>
+        <v>43.70526263292237</v>
       </c>
       <c r="D31">
-        <v>22246.85136522643</v>
+        <v>22246.85136522644</v>
       </c>
       <c r="E31">
-        <v>12922.48499236583</v>
+        <v>12922.48499236586</v>
       </c>
       <c r="F31">
-        <v>11662.18298084893</v>
+        <v>11662.18298084894</v>
       </c>
       <c r="G31">
-        <v>10.27867599129558</v>
+        <v>10.27867599129562</v>
       </c>
       <c r="H31">
-        <v>29.36145199694315</v>
+        <v>29.36145199694323</v>
       </c>
       <c r="I31">
         <v>1.600148506746975E-09</v>
       </c>
       <c r="J31">
-        <v>1.29557570420532E-09</v>
+        <v>1.295575704205313E-09</v>
       </c>
       <c r="K31">
-        <v>0.000631827345048806</v>
+        <v>0.0006318273450488082</v>
       </c>
       <c r="L31">
-        <v>0.07284435704276487</v>
+        <v>0.07284435704276485</v>
       </c>
       <c r="M31">
-        <v>686.7452660112949</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.07284435704276485</v>
+      </c>
+      <c r="N31">
+        <v>686.7452660112946</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>156.6489609669702</v>
+        <v>156.6489609669699</v>
       </c>
       <c r="B32">
-        <v>63240.23046319853</v>
+        <v>63240.23046319783</v>
       </c>
       <c r="C32">
-        <v>49.5088657529151</v>
+        <v>49.5088657529146</v>
       </c>
       <c r="D32">
-        <v>22131.3575538516</v>
+        <v>22131.35755385161</v>
       </c>
       <c r="E32">
-        <v>12854.46246352715</v>
+        <v>12854.46246352716</v>
       </c>
       <c r="F32">
-        <v>11579.96832603156</v>
+        <v>11579.96832603158</v>
       </c>
       <c r="G32">
-        <v>9.895487201976692</v>
+        <v>9.895487201976719</v>
       </c>
       <c r="H32">
-        <v>28.55330296817511</v>
+        <v>28.55330296817516</v>
       </c>
       <c r="I32">
-        <v>1.637341596018878E-09</v>
+        <v>1.637341596018872E-09</v>
       </c>
       <c r="J32">
-        <v>1.359307746347545E-09</v>
+        <v>1.359307746347539E-09</v>
       </c>
       <c r="K32">
-        <v>0.0006033745909367034</v>
+        <v>0.000603374590936706</v>
       </c>
       <c r="L32">
         <v>0.07267492686015244</v>
       </c>
       <c r="M32">
-        <v>680.9215917467531</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.07267492686015244</v>
+      </c>
+      <c r="N32">
+        <v>680.921591746754</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>158.7323106320607</v>
+        <v>158.7323106320605</v>
       </c>
       <c r="B33">
-        <v>72177.3174449365</v>
+        <v>72177.31744493512</v>
       </c>
       <c r="C33">
-        <v>55.87845658954667</v>
+        <v>55.87845658954564</v>
       </c>
       <c r="D33">
-        <v>22017.07345671425</v>
+        <v>22017.07345671426</v>
       </c>
       <c r="E33">
         <v>12787.311079909</v>
       </c>
       <c r="F33">
-        <v>11498.90515965733</v>
+        <v>11498.90515965732</v>
       </c>
       <c r="G33">
-        <v>9.558240305652498</v>
+        <v>9.558240305652525</v>
       </c>
       <c r="H33">
-        <v>27.84723713333284</v>
+        <v>27.84723713333292</v>
       </c>
       <c r="I33">
         <v>1.676219266819569E-09</v>
       </c>
       <c r="J33">
-        <v>1.426148445997833E-09</v>
+        <v>1.42614844599783E-09</v>
       </c>
       <c r="K33">
-        <v>0.0005772993787116573</v>
+        <v>0.0005772993787116589</v>
       </c>
       <c r="L33">
-        <v>0.07247387359831009</v>
+        <v>0.07247387359831006</v>
       </c>
       <c r="M33">
+        <v>0.07247387359831006</v>
+      </c>
+      <c r="N33">
         <v>674.9858862366916</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>160.8156602971512</v>
+        <v>160.815660297151</v>
       </c>
       <c r="B34">
-        <v>82066.34163507307</v>
+        <v>82066.34163507186</v>
       </c>
       <c r="C34">
-        <v>62.84901477853978</v>
+        <v>62.84901477853892</v>
       </c>
       <c r="D34">
-        <v>21903.84479116532</v>
+        <v>21903.84479116533</v>
       </c>
       <c r="E34">
-        <v>12720.79246230715</v>
+        <v>12720.79246230716</v>
       </c>
       <c r="F34">
-        <v>11418.76938689426</v>
+        <v>11418.76938689428</v>
       </c>
       <c r="G34">
-        <v>9.261293838687335</v>
+        <v>9.261293838687351</v>
       </c>
       <c r="H34">
-        <v>27.23383368246885</v>
+        <v>27.23383368246895</v>
       </c>
       <c r="I34">
-        <v>1.716883398637069E-09</v>
+        <v>1.716883398637063E-09</v>
       </c>
       <c r="J34">
-        <v>1.496133044694841E-09</v>
+        <v>1.496133044694834E-09</v>
       </c>
       <c r="K34">
-        <v>0.0005533213853863619</v>
+        <v>0.0005533213853863643</v>
       </c>
       <c r="L34">
-        <v>0.07223803289346406</v>
+        <v>0.0722380328934641</v>
       </c>
       <c r="M34">
-        <v>668.9596956349886</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.0722380328934641</v>
+      </c>
+      <c r="N34">
+        <v>668.95969563499</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>162.8990099622417</v>
+        <v>162.8990099622415</v>
       </c>
       <c r="B35">
-        <v>92974.1136054136</v>
+        <v>92974.1136054129</v>
       </c>
       <c r="C35">
-        <v>70.45640468231443</v>
+        <v>70.456404682314</v>
       </c>
       <c r="D35">
-        <v>21791.52568517264</v>
+        <v>21791.52568517265</v>
       </c>
       <c r="E35">
-        <v>12654.68707687472</v>
+        <v>12654.68707687473</v>
       </c>
       <c r="F35">
-        <v>11339.35584570926</v>
+        <v>11339.35584570928</v>
       </c>
       <c r="G35">
-        <v>8.999587576199238</v>
+        <v>8.999587576199277</v>
       </c>
       <c r="H35">
-        <v>26.70464278829387</v>
+        <v>26.70464278829393</v>
       </c>
       <c r="I35">
-        <v>1.759442830277715E-09</v>
+        <v>1.759442830277711E-09</v>
       </c>
       <c r="J35">
-        <v>1.569286157403971E-09</v>
+        <v>1.569286157403964E-09</v>
       </c>
       <c r="K35">
-        <v>0.0005311963579390711</v>
+        <v>0.0005311963579390734</v>
       </c>
       <c r="L35">
-        <v>0.0719640657926361</v>
+        <v>0.07196406579263612</v>
       </c>
       <c r="M35">
-        <v>662.8626857516723</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>0.07196406579263612</v>
+      </c>
+      <c r="N35">
+        <v>662.8626857516725</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>164.9823596273322</v>
+        <v>164.982359627332</v>
       </c>
       <c r="B36">
-        <v>104969.3432677108</v>
+        <v>104969.3432677101</v>
       </c>
       <c r="C36">
-        <v>78.73737914025679</v>
+        <v>78.73737914025632</v>
       </c>
       <c r="D36">
-        <v>21679.97791335454</v>
+        <v>21679.97791335455</v>
       </c>
       <c r="E36">
         <v>12588.79236498008</v>
       </c>
       <c r="F36">
-        <v>11260.47642942736</v>
+        <v>11260.47642942735</v>
       </c>
       <c r="G36">
-        <v>8.7686024281379</v>
+        <v>8.768602428137886</v>
       </c>
       <c r="H36">
-        <v>26.25210716347674</v>
+        <v>26.25210716347679</v>
       </c>
       <c r="I36">
-        <v>1.804014070018007E-09</v>
+        <v>1.804014070018005E-09</v>
       </c>
       <c r="J36">
-        <v>1.645621996542798E-09</v>
+        <v>1.64562199654279E-09</v>
       </c>
       <c r="K36">
-        <v>0.000510712247612097</v>
+        <v>0.0005107122476120988</v>
       </c>
       <c r="L36">
-        <v>0.07164858847827787</v>
+        <v>0.0716485884782779</v>
       </c>
       <c r="M36">
-        <v>656.7123618044074</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.0716485884782779</v>
+      </c>
+      <c r="N36">
+        <v>656.7123618044081</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>167.0657092924228</v>
+        <v>167.0657092924225</v>
       </c>
       <c r="B37">
-        <v>118122.5523631466</v>
+        <v>118122.5523631448</v>
       </c>
       <c r="C37">
-        <v>87.72958904106575</v>
+        <v>87.72958904106449</v>
       </c>
       <c r="D37">
-        <v>21569.07019159992</v>
+        <v>21569.07019159993</v>
       </c>
       <c r="E37">
         <v>12522.92102149479</v>
       </c>
       <c r="F37">
-        <v>11181.95836080232</v>
+        <v>11181.95836080231</v>
       </c>
       <c r="G37">
-        <v>8.56431855003993</v>
+        <v>8.564318550039971</v>
       </c>
       <c r="H37">
-        <v>25.86948637001796</v>
+        <v>25.86948637001801</v>
       </c>
       <c r="I37">
-        <v>1.850722067984353E-09</v>
+        <v>1.850722067984347E-09</v>
       </c>
       <c r="J37">
-        <v>1.725144833242266E-09</v>
+        <v>1.725144833242255E-09</v>
       </c>
       <c r="K37">
-        <v>0.0004916851953470564</v>
+        <v>0.0004916851953470591</v>
       </c>
       <c r="L37">
-        <v>0.0712883148900668</v>
+        <v>0.07128831489006686</v>
       </c>
       <c r="M37">
-        <v>650.5239340366228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.07128831489006686</v>
+      </c>
+      <c r="N37">
+        <v>650.5239340366232</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>169.1490589575133</v>
+        <v>169.1490589575131</v>
       </c>
       <c r="B38">
-        <v>132505.9856153706</v>
+        <v>132505.9856153688</v>
       </c>
       <c r="C38">
-        <v>97.47159905958632</v>
+        <v>97.47159905958507</v>
       </c>
       <c r="D38">
-        <v>21458.6775242186</v>
+        <v>21458.67752421861</v>
       </c>
       <c r="E38">
-        <v>12456.89941465318</v>
+        <v>12456.89941465319</v>
       </c>
       <c r="F38">
-        <v>11103.64261075076</v>
+        <v>11103.64261075077</v>
       </c>
       <c r="G38">
-        <v>8.3831731693107</v>
+        <v>8.383173169310774</v>
       </c>
       <c r="H38">
-        <v>25.5507848589115</v>
+        <v>25.55078485891157</v>
       </c>
       <c r="I38">
-        <v>1.899701059323613E-09</v>
+        <v>1.899701059323608E-09</v>
       </c>
       <c r="J38">
-        <v>1.807849686645449E-09</v>
+        <v>1.807849686645439E-09</v>
       </c>
       <c r="K38">
-        <v>0.0004739556982658685</v>
+        <v>0.0004739556982658702</v>
       </c>
       <c r="L38">
-        <v>0.07088020706663029</v>
+        <v>0.07088020706663033</v>
       </c>
       <c r="M38">
-        <v>644.3102990962606</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.07088020706663033</v>
+      </c>
+      <c r="N38">
+        <v>644.3102990962605</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>171.2324086226038</v>
+        <v>171.2324086226036</v>
       </c>
       <c r="B39">
-        <v>148193.5211856636</v>
+        <v>148193.5211856625</v>
       </c>
       <c r="C39">
-        <v>108.002909907144</v>
+        <v>108.0029099071434</v>
       </c>
       <c r="D39">
-        <v>21348.68059818499</v>
+        <v>21348.680598185</v>
       </c>
       <c r="E39">
-        <v>12390.56613909154</v>
+        <v>12390.56613909157</v>
       </c>
       <c r="F39">
-        <v>11025.38245337771</v>
+        <v>11025.38245337774</v>
       </c>
       <c r="G39">
-        <v>8.222019216814784</v>
+        <v>8.222019216814825</v>
       </c>
       <c r="H39">
-        <v>25.29068437409277</v>
+        <v>25.29068437409282</v>
       </c>
       <c r="I39">
-        <v>1.951095487791609E-09</v>
+        <v>1.951095487791602E-09</v>
       </c>
       <c r="J39">
-        <v>1.893723224560679E-09</v>
+        <v>1.893723224560669E-09</v>
       </c>
       <c r="K39">
-        <v>0.0004573851296315204</v>
+        <v>0.0004573851296315226</v>
       </c>
       <c r="L39">
-        <v>0.07042163007362183</v>
+        <v>0.07042163007362189</v>
       </c>
       <c r="M39">
-        <v>638.0821086017824</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.07042163007362189</v>
+      </c>
+      <c r="N39">
+        <v>638.0821086017828</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>173.3157582876944</v>
+        <v>173.3157582876941</v>
       </c>
       <c r="B40">
-        <v>165260.5810238353</v>
+        <v>165260.581023834</v>
       </c>
       <c r="C40">
-        <v>119.36398746352</v>
+        <v>119.3639874635192</v>
       </c>
       <c r="D40">
-        <v>21238.96521958425</v>
+        <v>21238.96521958426</v>
       </c>
       <c r="E40">
         <v>12323.77069272709</v>
       </c>
       <c r="F40">
-        <v>10947.04214798987</v>
+        <v>10947.04214798988</v>
       </c>
       <c r="G40">
-        <v>8.078085531200978</v>
+        <v>8.078085531200955</v>
       </c>
       <c r="H40">
-        <v>25.08448109070122</v>
+        <v>25.08448109070121</v>
       </c>
       <c r="I40">
-        <v>2.005061020606969E-09</v>
+        <v>2.005061020606955E-09</v>
       </c>
       <c r="J40">
-        <v>1.982744852401779E-09</v>
+        <v>1.982744852401764E-09</v>
       </c>
       <c r="K40">
-        <v>0.0004418526822796879</v>
+        <v>0.0004418526822796905</v>
       </c>
       <c r="L40">
-        <v>0.06991051036246358</v>
+        <v>0.06991051036246369</v>
       </c>
       <c r="M40">
-        <v>631.8478994071091</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.06991051036246369</v>
+      </c>
+      <c r="N40">
+        <v>631.8478994071112</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>175.3991079527849</v>
+        <v>175.3991079527846</v>
       </c>
       <c r="B41">
-        <v>183784.041664949</v>
+        <v>183784.0416649452</v>
       </c>
       <c r="C41">
-        <v>131.5962991914297</v>
+        <v>131.596299191427</v>
       </c>
       <c r="D41">
-        <v>21129.42178785192</v>
+        <v>21129.42178785193</v>
       </c>
       <c r="E41">
-        <v>12256.3722676286</v>
+        <v>12256.37226762862</v>
       </c>
       <c r="F41">
-        <v>10868.495738307</v>
+        <v>10868.49573830702</v>
       </c>
       <c r="G41">
-        <v>7.948939152605559</v>
+        <v>7.948939152605519</v>
       </c>
       <c r="H41">
-        <v>24.92802765804091</v>
+        <v>24.92802765804089</v>
       </c>
       <c r="I41">
-        <v>2.061765666823009E-09</v>
+        <v>2.061765666823001E-09</v>
       </c>
       <c r="J41">
-        <v>2.07488796239666E-09</v>
+        <v>2.074887962396647E-09</v>
       </c>
       <c r="K41">
-        <v>0.0004272527430208206</v>
+        <v>0.000427252743020823</v>
       </c>
       <c r="L41">
-        <v>0.06934549724629968</v>
+        <v>0.06934549724629982</v>
       </c>
       <c r="M41">
-        <v>625.6142639607928</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0.06934549724629982</v>
+      </c>
+      <c r="N41">
+        <v>625.6142639607943</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>177.4824576178754</v>
+        <v>177.4824576178751</v>
       </c>
       <c r="B42">
-        <v>203842.1459812516</v>
+        <v>203842.1459812485</v>
       </c>
       <c r="C42">
-        <v>144.7423582820793</v>
+        <v>144.7423582820773</v>
       </c>
       <c r="D42">
-        <v>21019.94480382352</v>
+        <v>21019.94480382354</v>
       </c>
       <c r="E42">
-        <v>12188.23864484196</v>
+        <v>12188.23864484197</v>
       </c>
       <c r="F42">
-        <v>10789.62595892045</v>
+        <v>10789.62595892046</v>
       </c>
       <c r="G42">
-        <v>7.832450029191746</v>
+        <v>7.83245002919174</v>
       </c>
       <c r="H42">
-        <v>24.81768016934699</v>
+        <v>24.81768016934696</v>
       </c>
       <c r="I42">
-        <v>2.121391013093283E-09</v>
+        <v>2.121391013093273E-09</v>
       </c>
       <c r="J42">
-        <v>2.170121311733094E-09</v>
+        <v>2.17012131173308E-09</v>
       </c>
       <c r="K42">
-        <v>0.0004134926705315548</v>
+        <v>0.000413492670531557</v>
       </c>
       <c r="L42">
-        <v>0.06872612570543304</v>
+        <v>0.06872612570543313</v>
       </c>
       <c r="M42">
-        <v>619.386043260143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.06872612570543313</v>
+      </c>
+      <c r="N42">
+        <v>619.3860432601442</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>179.5658072829659</v>
+        <v>179.5658072829657</v>
       </c>
       <c r="B43">
-        <v>225514.4163614689</v>
+        <v>225514.416361467</v>
       </c>
       <c r="C43">
-        <v>158.8457760442275</v>
+        <v>158.8457760442264</v>
       </c>
       <c r="D43">
-        <v>20910.43240798495</v>
+        <v>20910.43240798498</v>
       </c>
       <c r="E43">
-        <v>12119.24518317508</v>
+        <v>12119.24518317511</v>
       </c>
       <c r="F43">
-        <v>10710.32323912056</v>
+        <v>10710.32323912059</v>
       </c>
       <c r="G43">
-        <v>7.726758312936406</v>
+        <v>7.726758312936372</v>
       </c>
       <c r="H43">
-        <v>24.75024997300274</v>
+        <v>24.75024997300272</v>
       </c>
       <c r="I43">
-        <v>2.184133592587299E-09</v>
+        <v>2.184133592587283E-09</v>
       </c>
       <c r="J43">
-        <v>2.26841049671038E-09</v>
+        <v>2.268410496710361E-09</v>
       </c>
       <c r="K43">
-        <v>0.0004004909323102095</v>
+        <v>0.000400490932310212</v>
       </c>
       <c r="L43">
-        <v>0.06805297413491632</v>
+        <v>0.06805297413491648</v>
       </c>
       <c r="M43">
-        <v>613.166528832048</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.06805297413491648</v>
+      </c>
+      <c r="N43">
+        <v>613.1665288320502</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>181.6491569480565</v>
+        <v>181.6491569480562</v>
       </c>
       <c r="B44">
-        <v>248881.5697572912</v>
+        <v>248881.5697572862</v>
       </c>
       <c r="C44">
-        <v>173.951323131206</v>
+        <v>173.9513231312026</v>
       </c>
       <c r="D44">
-        <v>20800.78594564529</v>
+        <v>20800.7859456453</v>
       </c>
       <c r="E44">
-        <v>12049.27389214357</v>
+        <v>12049.27389214358</v>
       </c>
       <c r="F44">
-        <v>10630.48479444666</v>
+        <v>10630.48479444667</v>
       </c>
       <c r="G44">
-        <v>7.630244310755965</v>
+        <v>7.630244310756016</v>
       </c>
       <c r="H44">
-        <v>24.72296016457754</v>
+        <v>24.72296016457756</v>
       </c>
       <c r="I44">
-        <v>2.250206404997254E-09</v>
+        <v>2.250206404997245E-09</v>
       </c>
       <c r="J44">
-        <v>2.36971949002276E-09</v>
+        <v>2.369719490022749E-09</v>
       </c>
       <c r="K44">
-        <v>0.0003881755505474505</v>
+        <v>0.000388175550547452</v>
       </c>
       <c r="L44">
-        <v>0.06732780313047732</v>
+        <v>0.06732780313047741</v>
       </c>
       <c r="M44">
-        <v>606.9576636908175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.06732780313047741</v>
+      </c>
+      <c r="N44">
+        <v>606.9576636908179</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>183.732506613147</v>
+        <v>183.7325066131467</v>
       </c>
       <c r="B45">
-        <v>274025.4350100292</v>
+        <v>274025.4350100276</v>
       </c>
       <c r="C45">
-        <v>190.105000302334</v>
+        <v>190.1050003023333</v>
       </c>
       <c r="D45">
-        <v>20690.90955604427</v>
+        <v>20690.90955604429</v>
       </c>
       <c r="E45">
-        <v>11978.21257957661</v>
+        <v>11978.2125795766</v>
       </c>
       <c r="F45">
-        <v>10550.01379664915</v>
+        <v>10550.01379664914</v>
       </c>
       <c r="G45">
-        <v>7.541501075908929</v>
+        <v>7.541501075908882</v>
       </c>
       <c r="H45">
-        <v>24.73340654908001</v>
+        <v>24.73340654907994</v>
       </c>
       <c r="I45">
-        <v>2.319840608119899E-09</v>
+        <v>2.319840608119884E-09</v>
       </c>
       <c r="J45">
-        <v>2.474012209850756E-09</v>
+        <v>2.474012209850735E-09</v>
       </c>
       <c r="K45">
-        <v>0.0003764828075755818</v>
+        <v>0.0003764828075755839</v>
       </c>
       <c r="L45">
-        <v>0.06655365276178007</v>
+        <v>0.06655365276178021</v>
       </c>
       <c r="M45">
-        <v>600.7602352132907</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.06655365276178021</v>
+      </c>
+      <c r="N45">
+        <v>600.7602352132926</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>185.8158562782375</v>
+        <v>185.8158562782372</v>
       </c>
       <c r="B46">
-        <v>301028.8728497628</v>
+        <v>301028.8728497673</v>
       </c>
       <c r="C46">
-        <v>207.3541195393516</v>
+        <v>207.3541195393553</v>
       </c>
       <c r="D46">
-        <v>20580.70978266303</v>
+        <v>20580.70978266305</v>
       </c>
       <c r="E46">
-        <v>11905.95406473973</v>
+        <v>11905.95406473976</v>
       </c>
       <c r="F46">
-        <v>10468.81861314973</v>
+        <v>10468.81861314976</v>
       </c>
       <c r="G46">
-        <v>7.45930956637608</v>
+        <v>7.459309566376115</v>
       </c>
       <c r="H46">
-        <v>24.77952283251793</v>
+        <v>24.77952283251794</v>
       </c>
       <c r="I46">
-        <v>2.393287404465585E-09</v>
+        <v>2.393287404465577E-09</v>
       </c>
       <c r="J46">
-        <v>2.581254092232121E-09</v>
+        <v>2.581254092232106E-09</v>
       </c>
       <c r="K46">
-        <v>0.00036535616582229</v>
+        <v>0.0003653561658222911</v>
       </c>
       <c r="L46">
-        <v>0.06573486943054822</v>
+        <v>0.06573486943054831</v>
       </c>
       <c r="M46">
-        <v>594.5740553051293</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.06573486943054831</v>
+      </c>
+      <c r="N46">
+        <v>594.5740553051296</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>187.899205943328</v>
+        <v>187.8992059433277</v>
       </c>
       <c r="B47">
-        <v>329975.6989455132</v>
+        <v>329975.6989455028</v>
       </c>
       <c r="C47">
-        <v>225.7473964875723</v>
+        <v>225.7473964875651</v>
       </c>
       <c r="D47">
-        <v>20470.09520223171</v>
+        <v>20470.09520223173</v>
       </c>
       <c r="E47">
-        <v>11832.39544821292</v>
+        <v>11832.39544821298</v>
       </c>
       <c r="F47">
-        <v>10386.81210750799</v>
+        <v>10386.81210750805</v>
       </c>
       <c r="G47">
-        <v>7.382616256644769</v>
+        <v>7.382616256644774</v>
       </c>
       <c r="H47">
-        <v>24.85954978679677</v>
+        <v>24.85954978679678</v>
       </c>
       <c r="I47">
-        <v>2.470820149818599E-09</v>
+        <v>2.470820149818591E-09</v>
       </c>
       <c r="J47">
-        <v>2.691413641927063E-09</v>
+        <v>2.691413641927046E-09</v>
       </c>
       <c r="K47">
-        <v>0.0003547453629615286</v>
+        <v>0.0003547453629615298</v>
       </c>
       <c r="L47">
-        <v>0.06487703357307836</v>
+        <v>0.06487703357307849</v>
       </c>
       <c r="M47">
-        <v>588.39812513705</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.06487703357307849</v>
+      </c>
+      <c r="N47">
+        <v>588.3981251370508</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>189.9825556084186</v>
+        <v>189.9825556084183</v>
       </c>
       <c r="B48">
-        <v>360950.6103788855</v>
+        <v>360950.6103788795</v>
       </c>
       <c r="C48">
-        <v>245.3350553686808</v>
+        <v>245.3350553686769</v>
       </c>
       <c r="D48">
-        <v>20358.97607012533</v>
+        <v>20358.97607012534</v>
       </c>
       <c r="E48">
-        <v>11757.43743014859</v>
+        <v>11757.4374301486</v>
       </c>
       <c r="F48">
-        <v>10303.91099282926</v>
+        <v>10303.91099282927</v>
       </c>
       <c r="G48">
-        <v>7.310513062951304</v>
+        <v>7.310513062951376</v>
       </c>
       <c r="H48">
-        <v>24.97200812862063</v>
+        <v>24.97200812862064</v>
       </c>
       <c r="I48">
-        <v>2.552736714743823E-09</v>
+        <v>2.552736714743811E-09</v>
       </c>
       <c r="J48">
-        <v>2.804463941363015E-09</v>
+        <v>2.804463941362995E-09</v>
       </c>
       <c r="K48">
-        <v>0.0003446056490623104</v>
+        <v>0.0003446056490623121</v>
       </c>
       <c r="L48">
-        <v>0.06398676932981473</v>
+        <v>0.06398676932981491</v>
       </c>
       <c r="M48">
-        <v>582.2307831654673</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.06398676932981491</v>
+      </c>
+      <c r="N48">
+        <v>582.2307831654674</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>192.0659052735091</v>
+        <v>192.0659052735088</v>
       </c>
       <c r="B49">
-        <v>394039.1159154124</v>
+        <v>394039.1159154085</v>
       </c>
       <c r="C49">
-        <v>266.1689477207339</v>
+        <v>266.1689477207315</v>
       </c>
       <c r="D49">
-        <v>20247.26398001247</v>
+        <v>20247.2639800125</v>
       </c>
       <c r="E49">
-        <v>11680.98366890374</v>
+        <v>11680.98366890373</v>
       </c>
       <c r="F49">
         <v>10220.03523045826</v>
       </c>
       <c r="G49">
-        <v>7.242219426319233</v>
+        <v>7.242219426319269</v>
       </c>
       <c r="H49">
-        <v>25.11567485858576</v>
+        <v>25.11567485858573</v>
       </c>
       <c r="I49">
-        <v>2.639362134821831E-09</v>
+        <v>2.639362134821809E-09</v>
       </c>
       <c r="J49">
-        <v>2.920384101934651E-09</v>
+        <v>2.920384101934627E-09</v>
       </c>
       <c r="K49">
-        <v>0.0003348971383393499</v>
+        <v>0.000334897138339352</v>
       </c>
       <c r="L49">
-        <v>0.0630714368710502</v>
+        <v>0.06307143687105037</v>
       </c>
       <c r="M49">
-        <v>576.0698361914567</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.06307143687105037</v>
+      </c>
+      <c r="N49">
+        <v>576.0698361914581</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>194.1492549385996</v>
+        <v>194.1492549385993</v>
       </c>
       <c r="B50">
-        <v>429327.4704580817</v>
+        <v>429327.4704580734</v>
       </c>
       <c r="C50">
-        <v>288.3026865651439</v>
+        <v>288.3026865651384</v>
       </c>
       <c r="D50">
-        <v>20134.87153577283</v>
+        <v>20134.87153577285</v>
       </c>
       <c r="E50">
-        <v>11602.94017238374</v>
+        <v>11602.94017238373</v>
       </c>
       <c r="F50">
-        <v>10135.10746668481</v>
+        <v>10135.1074666848</v>
       </c>
       <c r="G50">
-        <v>7.177066390111827</v>
+        <v>7.177066390111846</v>
       </c>
       <c r="H50">
-        <v>25.28956281895948</v>
+        <v>25.28956281895945</v>
       </c>
       <c r="I50">
-        <v>2.731051591036975E-09</v>
+        <v>2.731051591036957E-09</v>
       </c>
       <c r="J50">
-        <v>3.039160646665294E-09</v>
+        <v>3.039160646665274E-09</v>
       </c>
       <c r="K50">
-        <v>0.0003255842532909924</v>
+        <v>0.0003255842532909938</v>
       </c>
       <c r="L50">
-        <v>0.06213873295349607</v>
+        <v>0.06213873295349619</v>
       </c>
       <c r="M50">
-        <v>569.9126739299107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.06213873295349619</v>
+      </c>
+      <c r="N50">
+        <v>569.9126739299121</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>196.2326046036902</v>
+        <v>196.2326046036898</v>
       </c>
       <c r="B51">
-        <v>466902.6140868375</v>
+        <v>466902.6140868334</v>
       </c>
       <c r="C51">
-        <v>311.7917978850049</v>
+        <v>311.7917978850027</v>
       </c>
       <c r="D51">
-        <v>20021.71203383066</v>
+        <v>20021.71203383068</v>
       </c>
       <c r="E51">
-        <v>11523.21471474356</v>
+        <v>11523.21471474355</v>
       </c>
       <c r="F51">
-        <v>10049.05250053168</v>
+        <v>10049.05250053167</v>
       </c>
       <c r="G51">
-        <v>7.114482507201918</v>
+        <v>7.11448250720195</v>
       </c>
       <c r="H51">
-        <v>25.49290324605467</v>
+        <v>25.49290324605462</v>
       </c>
       <c r="I51">
-        <v>2.828193768415555E-09</v>
+        <v>2.828193768415535E-09</v>
       </c>
       <c r="J51">
-        <v>3.160788817777528E-09</v>
+        <v>3.160788817777505E-09</v>
       </c>
       <c r="K51">
-        <v>0.0003166352434532894</v>
+        <v>0.000316635243453291</v>
       </c>
       <c r="L51">
-        <v>0.06119624768090156</v>
+        <v>0.06119624768090174</v>
       </c>
       <c r="M51">
-        <v>563.7563680268846</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.06119624768090174</v>
+      </c>
+      <c r="N51">
+        <v>563.7563680268855</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
-        <v>198.3159542687807</v>
+        <v>198.3159542687804</v>
       </c>
       <c r="B52">
-        <v>506852.1161164867</v>
+        <v>506852.1161164856</v>
       </c>
       <c r="C52">
         <v>336.6938916293354</v>
       </c>
       <c r="D52">
-        <v>19907.6991541651</v>
+        <v>19907.69915416512</v>
       </c>
       <c r="E52">
-        <v>11441.71627135833</v>
+        <v>11441.71627135834</v>
       </c>
       <c r="F52">
-        <v>9961.796775993858</v>
+        <v>9961.79677599388</v>
       </c>
       <c r="G52">
-        <v>7.053981414638153</v>
+        <v>7.05398141463811</v>
       </c>
       <c r="H52">
-        <v>25.72513111446592</v>
+        <v>25.72513111446578</v>
       </c>
       <c r="I52">
-        <v>2.931214648924028E-09</v>
+        <v>2.931214648923999E-09</v>
       </c>
       <c r="J52">
-        <v>3.285273806898548E-09</v>
+        <v>3.285273806898526E-09</v>
       </c>
       <c r="K52">
-        <v>0.0003080217647033983</v>
+        <v>0.0003080217647034</v>
       </c>
       <c r="L52">
-        <v>0.06025103730405828</v>
+        <v>0.06025103730405847</v>
       </c>
       <c r="M52">
-        <v>557.5977567383238</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.06025103730405847</v>
+      </c>
+      <c r="N52">
+        <v>557.597756738326</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>200.3993039338712</v>
+        <v>200.3993039338709</v>
       </c>
       <c r="B53">
-        <v>549264.1246432469</v>
+        <v>549264.12464324</v>
       </c>
       <c r="C53">
-        <v>363.0688548393982</v>
+        <v>363.068854839394</v>
       </c>
       <c r="D53">
-        <v>19792.74665835415</v>
+        <v>19792.74665835417</v>
       </c>
       <c r="E53">
-        <v>11358.35446520001</v>
+        <v>11358.35446520003</v>
       </c>
       <c r="F53">
-        <v>9873.267892350936</v>
+        <v>9873.26789235095</v>
       </c>
       <c r="G53">
-        <v>6.995150919582942</v>
+        <v>6.995150919583036</v>
       </c>
       <c r="H53">
-        <v>25.98587309491949</v>
+        <v>25.98587309491955</v>
       </c>
       <c r="I53">
-        <v>3.040581804054025E-09</v>
+        <v>3.040581804054013E-09</v>
       </c>
       <c r="J53">
-        <v>3.412631909324168E-09</v>
+        <v>3.412631909324149E-09</v>
       </c>
       <c r="K53">
-        <v>0.0002997185080698934</v>
+        <v>0.0002997185080698947</v>
       </c>
       <c r="L53">
-        <v>0.05930926975917999</v>
+        <v>0.05930926975918011</v>
       </c>
       <c r="M53">
-        <v>551.43351661807</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.05930926975918011</v>
+      </c>
+      <c r="N53">
+        <v>551.4335166180699</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>202.4826535989617</v>
+        <v>202.4826535989614</v>
       </c>
       <c r="B54">
-        <v>594227.3220984164</v>
+        <v>594227.3220984089</v>
       </c>
       <c r="C54">
-        <v>390.979069933952</v>
+        <v>390.9790699339475</v>
       </c>
       <c r="D54">
-        <v>19676.7680930899</v>
+        <v>19676.76809308993</v>
       </c>
       <c r="E54">
-        <v>11273.0390179345</v>
+        <v>11273.03901793451</v>
       </c>
       <c r="F54">
-        <v>9783.394126374567</v>
+        <v>9783.394126374586</v>
       </c>
       <c r="G54">
-        <v>6.937643448298351</v>
+        <v>6.937643448298357</v>
       </c>
       <c r="H54">
-        <v>26.27493797459958</v>
+        <v>26.27493797459957</v>
       </c>
       <c r="I54">
-        <v>3.156809263765038E-09</v>
+        <v>3.156809263765021E-09</v>
       </c>
       <c r="J54">
-        <v>3.542891606922858E-09</v>
+        <v>3.542891606922836E-09</v>
       </c>
       <c r="K54">
-        <v>0.0002917028694379599</v>
+        <v>0.0002917028694379612</v>
       </c>
       <c r="L54">
-        <v>0.0583759828036375</v>
+        <v>0.05837598280363767</v>
       </c>
       <c r="M54">
-        <v>545.2602225983628</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.05837598280363767</v>
+      </c>
+      <c r="N54">
+        <v>545.2602225983638</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>204.5660032640523</v>
+        <v>204.5660032640519</v>
       </c>
       <c r="B55">
-        <v>641830.8873852253</v>
+        <v>641830.8873852115</v>
       </c>
       <c r="C55">
-        <v>420.4896616971474</v>
+        <v>420.4896616971383</v>
       </c>
       <c r="D55">
-        <v>19559.67649766643</v>
+        <v>19559.67649766645</v>
       </c>
       <c r="E55">
-        <v>11185.67919918634</v>
+        <v>11185.67919918636</v>
       </c>
       <c r="F55">
-        <v>9692.103960402274</v>
+        <v>9692.103960402294</v>
       </c>
       <c r="G55">
-        <v>6.881167719301499</v>
+        <v>6.881167719301474</v>
       </c>
       <c r="H55">
-        <v>26.59230941835803</v>
+        <v>26.59230941835796</v>
       </c>
       <c r="I55">
-        <v>3.280463051933099E-09</v>
+        <v>3.280463051933077E-09</v>
       </c>
       <c r="J55">
-        <v>3.676094586865358E-09</v>
+        <v>3.676094586865335E-09</v>
       </c>
       <c r="K55">
-        <v>0.0002839546534661951</v>
+        <v>0.0002839546534661963</v>
       </c>
       <c r="L55">
-        <v>0.05745497028447644</v>
+        <v>0.05745497028447658</v>
       </c>
       <c r="M55">
-        <v>539.0743978135439</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.05745497028447658</v>
+      </c>
+      <c r="N55">
+        <v>539.0743978135455</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>206.6493529291428</v>
+        <v>206.6493529291424</v>
       </c>
       <c r="B56">
-        <v>692164.465242761</v>
+        <v>692164.4652427444</v>
       </c>
       <c r="C56">
-        <v>451.668777095618</v>
+        <v>451.6687770956069</v>
       </c>
       <c r="D56">
-        <v>19441.38411398998</v>
+        <v>19441.38411399001</v>
       </c>
       <c r="E56">
-        <v>11096.18326750607</v>
+        <v>11096.18326750609</v>
       </c>
       <c r="F56">
-        <v>9599.325610343947</v>
+        <v>9599.325610343971</v>
       </c>
       <c r="G56">
-        <v>6.825481511932769</v>
+        <v>6.825481511932801</v>
       </c>
       <c r="H56">
-        <v>26.93814098129772</v>
+        <v>26.93814098129765</v>
       </c>
       <c r="I56">
-        <v>3.412167494671091E-09</v>
+        <v>3.412167494671053E-09</v>
       </c>
       <c r="J56">
-        <v>3.81229670544196E-09</v>
+        <v>3.812296705441931E-09</v>
       </c>
       <c r="K56">
-        <v>0.0002764558065470324</v>
+        <v>0.0002764558065470342</v>
       </c>
       <c r="L56">
-        <v>0.05654878823475686</v>
+        <v>0.0565487882347571</v>
       </c>
       <c r="M56">
-        <v>532.8725544412815</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.0565487882347571</v>
+      </c>
+      <c r="N56">
+        <v>532.8725544412832</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>208.7327025942333</v>
+        <v>208.732702594233</v>
       </c>
       <c r="B57">
-        <v>745318.1435586585</v>
+        <v>745318.1435586552</v>
       </c>
       <c r="C57">
-        <v>484.5879027205314</v>
+        <v>484.58790272053</v>
       </c>
       <c r="D57">
-        <v>19321.80209769123</v>
+        <v>19321.80209769126</v>
       </c>
       <c r="E57">
-        <v>11004.45789661586</v>
+        <v>11004.4578966159</v>
       </c>
       <c r="F57">
-        <v>9504.986547728295</v>
+        <v>9504.986547728329</v>
       </c>
       <c r="G57">
-        <v>6.770385411993751</v>
+        <v>6.770385411993771</v>
       </c>
       <c r="H57">
-        <v>27.31275331815526</v>
+        <v>27.31275331815518</v>
       </c>
       <c r="I57">
-        <v>3.552612427481673E-09</v>
+        <v>3.552612427481637E-09</v>
       </c>
       <c r="J57">
-        <v>3.951568907833084E-09</v>
+        <v>3.951568907833056E-09</v>
       </c>
       <c r="K57">
-        <v>0.0002691901748232168</v>
+        <v>0.0002691901748232186</v>
       </c>
       <c r="L57">
-        <v>0.05565885537686956</v>
+        <v>0.05565885537686976</v>
       </c>
       <c r="M57">
-        <v>526.651226733411</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.05565885537686976</v>
+      </c>
+      <c r="N57">
+        <v>526.6512267334126</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>210.8160522593239</v>
+        <v>210.8160522593235</v>
       </c>
       <c r="B58">
-        <v>801382.4394390589</v>
+        <v>801382.4394390418</v>
       </c>
       <c r="C58">
-        <v>519.322225417621</v>
+        <v>519.3222254176096</v>
       </c>
       <c r="D58">
-        <v>19200.84022892946</v>
+        <v>19200.84022892948</v>
       </c>
       <c r="E58">
-        <v>10910.40758050624</v>
+        <v>10910.40758050627</v>
       </c>
       <c r="F58">
-        <v>9409.013009881048</v>
+        <v>9409.013009881068</v>
       </c>
       <c r="G58">
-        <v>6.715717426537122</v>
+        <v>6.715717426537148</v>
       </c>
       <c r="H58">
-        <v>27.71663357339168</v>
+        <v>27.71663357339165</v>
       </c>
       <c r="I58">
-        <v>3.70256145098587E-09</v>
+        <v>3.702561450985846E-09</v>
       </c>
       <c r="J58">
-        <v>4.093998115905556E-09</v>
+        <v>4.093998115905532E-09</v>
       </c>
       <c r="K58">
-        <v>0.0002621432841854162</v>
+        <v>0.0002621432841854175</v>
       </c>
       <c r="L58">
-        <v>0.05478561482126022</v>
+        <v>0.05478561482126038</v>
       </c>
       <c r="M58">
-        <v>520.4069972926417</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0.05478561482126038</v>
+      </c>
+      <c r="N58">
+        <v>520.4069972926427</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>212.8994019244144</v>
+        <v>212.899401924414</v>
       </c>
       <c r="B59">
-        <v>860448.2949413118</v>
+        <v>860448.2949412918</v>
       </c>
       <c r="C59">
-        <v>555.9510425487697</v>
+        <v>555.9510425487562</v>
       </c>
       <c r="D59">
-        <v>19078.40662146532</v>
+        <v>19078.40662146534</v>
       </c>
       <c r="E59">
-        <v>10813.93401090545</v>
+        <v>10813.93401090548</v>
       </c>
       <c r="F59">
-        <v>9311.329492252855</v>
+        <v>9311.329492252875</v>
       </c>
       <c r="G59">
-        <v>6.661348370069154</v>
+        <v>6.661348370069142</v>
       </c>
       <c r="H59">
-        <v>28.15043697887928</v>
+        <v>28.15043697887931</v>
       </c>
       <c r="I59">
-        <v>3.862861413966496E-09</v>
+        <v>3.862861413966485E-09</v>
       </c>
       <c r="J59">
-        <v>4.239688097001857E-09</v>
+        <v>4.239688097001838E-09</v>
       </c>
       <c r="K59">
-        <v>0.0002553021398766217</v>
+        <v>0.0002553021398766227</v>
       </c>
       <c r="L59">
-        <v>0.05392872439338625</v>
+        <v>0.05392872439338635</v>
       </c>
       <c r="M59">
-        <v>514.1365175308548</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.05392872439338635</v>
+      </c>
+      <c r="N59">
+        <v>514.1365175308557</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>214.9827515895049</v>
+        <v>214.9827515895045</v>
       </c>
       <c r="B60">
-        <v>922607.0834788462</v>
+        <v>922607.0834788221</v>
       </c>
       <c r="C60">
-        <v>594.5582293369682</v>
+        <v>594.5582293369515</v>
       </c>
       <c r="D60">
-        <v>18954.40742853733</v>
+        <v>18954.40742853735</v>
       </c>
       <c r="E60">
         <v>10714.93542054683</v>
       </c>
       <c r="F60">
-        <v>9211.858216780125</v>
+        <v>9211.858216780134</v>
       </c>
       <c r="G60">
-        <v>6.60717793418199</v>
+        <v>6.607177934181984</v>
       </c>
       <c r="H60">
-        <v>28.6149907348865</v>
+        <v>28.61499073488632</v>
       </c>
       <c r="I60">
-        <v>4.034453337990943E-09</v>
+        <v>4.034453337990902E-09</v>
       </c>
       <c r="J60">
-        <v>4.388760327366753E-09</v>
+        <v>4.388760327366726E-09</v>
       </c>
       <c r="K60">
-        <v>0.0002486550438627467</v>
+        <v>0.0002486550438627479</v>
       </c>
       <c r="L60">
-        <v>0.05308724919189051</v>
+        <v>0.05308724919189066</v>
       </c>
       <c r="M60">
-        <v>507.8365231253787</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.05308724919189066</v>
+      </c>
+      <c r="N60">
+        <v>507.83652312538</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>217.0661012545955</v>
+        <v>217.066101254595</v>
       </c>
       <c r="B61">
-        <v>987950.6280205286</v>
+        <v>987950.6280205351</v>
       </c>
       <c r="C61">
-        <v>635.2327719033726</v>
+        <v>635.2327719033794</v>
       </c>
       <c r="D61">
-        <v>18828.74654399921</v>
+        <v>18828.74654399924</v>
       </c>
       <c r="E61">
-        <v>10613.30588551117</v>
+        <v>10613.30588551122</v>
       </c>
       <c r="F61">
-        <v>9110.518569959295</v>
+        <v>9110.518569959344</v>
       </c>
       <c r="G61">
-        <v>6.553131361900824</v>
+        <v>6.553131361900859</v>
       </c>
       <c r="H61">
-        <v>29.11130030655729</v>
+        <v>29.11130030655711</v>
       </c>
       <c r="I61">
-        <v>4.218385041625927E-09</v>
+        <v>4.218385041625872E-09</v>
       </c>
       <c r="J61">
-        <v>4.541354864407309E-09</v>
+        <v>4.541354864407271E-09</v>
       </c>
       <c r="K61">
-        <v>0.0002421914285319805</v>
+        <v>0.0002421914285319823</v>
       </c>
       <c r="L61">
-        <v>0.05225983841134765</v>
+        <v>0.05225983841134789</v>
       </c>
       <c r="M61">
-        <v>501.5038451746289</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.05225983841134789</v>
+      </c>
+      <c r="N61">
+        <v>501.5038451746303</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>219.149450919686</v>
+        <v>219.1494509196856</v>
       </c>
       <c r="B62">
-        <v>1056571.232323771</v>
+        <v>1056571.232323753</v>
       </c>
       <c r="C62">
-        <v>678.0693759294772</v>
+        <v>678.0693759294659</v>
       </c>
       <c r="D62">
-        <v>18701.32529705238</v>
+        <v>18701.3252970524</v>
       </c>
       <c r="E62">
-        <v>10508.93457972575</v>
+        <v>10508.93457972579</v>
       </c>
       <c r="F62">
-        <v>9007.226504043922</v>
+        <v>9007.22650404396</v>
       </c>
       <c r="G62">
-        <v>6.499156656677328</v>
+        <v>6.499156656677308</v>
       </c>
       <c r="H62">
-        <v>29.64055833457736</v>
+        <v>29.64055833457722</v>
       </c>
       <c r="I62">
-        <v>4.415825776416789E-09</v>
+        <v>4.415825776416743E-09</v>
       </c>
       <c r="J62">
-        <v>4.697631242502784E-09</v>
+        <v>4.697631242502746E-09</v>
       </c>
       <c r="K62">
-        <v>0.0002359017055867394</v>
+        <v>0.0002359017055867409</v>
       </c>
       <c r="L62">
-        <v>0.05144487663205592</v>
+        <v>0.05144487663205611</v>
       </c>
       <c r="M62">
-        <v>495.1354176465615</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.05144487663205611</v>
+      </c>
+      <c r="N62">
+        <v>495.1354176465631</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>221.2328005847765</v>
+        <v>221.2328005847761</v>
       </c>
       <c r="B63">
-        <v>1128561.726562361</v>
+        <v>1128561.726562355</v>
       </c>
       <c r="C63">
-        <v>723.1691623951565</v>
+        <v>723.1691623951539</v>
       </c>
       <c r="D63">
-        <v>18572.042138726</v>
+        <v>18572.04213872602</v>
       </c>
       <c r="E63">
-        <v>10401.70497444981</v>
+        <v>10401.70497444985</v>
       </c>
       <c r="F63">
-        <v>8901.893894421608</v>
+        <v>8901.893894421642</v>
       </c>
       <c r="G63">
-        <v>6.445222264026957</v>
+        <v>6.445222264027</v>
       </c>
       <c r="H63">
-        <v>30.20415643837392</v>
+        <v>30.20415643837384</v>
       </c>
       <c r="I63">
-        <v>4.628083254228297E-09</v>
+        <v>4.62808325422826E-09</v>
       </c>
       <c r="J63">
-        <v>4.857769407660941E-09</v>
+        <v>4.857769407660906E-09</v>
       </c>
       <c r="K63">
-        <v>0.0002297771292141357</v>
+        <v>0.0002297771292141367</v>
       </c>
       <c r="L63">
-        <v>0.05064060628020317</v>
+        <v>0.05064060628020331</v>
       </c>
       <c r="M63">
-        <v>488.728281612672</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.05064060628020331</v>
+      </c>
+      <c r="N63">
+        <v>488.7282816126728</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>223.316150249867</v>
+        <v>223.3161502498666</v>
       </c>
       <c r="B64">
-        <v>1204015.528831809</v>
+        <v>1204015.528831789</v>
       </c>
       <c r="C64">
-        <v>770.6404635794063</v>
+        <v>770.6404635793929</v>
       </c>
       <c r="D64">
-        <v>18440.79231799883</v>
+        <v>18440.79231799885</v>
       </c>
       <c r="E64">
-        <v>10291.49397527842</v>
+        <v>10291.49397527844</v>
       </c>
       <c r="F64">
-        <v>8794.427845794873</v>
+        <v>8794.427845794882</v>
       </c>
       <c r="G64">
-        <v>6.39131517120928</v>
+        <v>6.391315171209317</v>
       </c>
       <c r="H64">
-        <v>30.80370028700547</v>
+        <v>30.80370028700534</v>
       </c>
       <c r="I64">
-        <v>4.856623529969067E-09</v>
+        <v>4.856623529969018E-09</v>
       </c>
       <c r="J64">
-        <v>5.021970707052912E-09</v>
+        <v>5.02197070705288E-09</v>
       </c>
       <c r="K64">
-        <v>0.0002238096727814863</v>
+        <v>0.0002238096727814874</v>
       </c>
       <c r="L64">
-        <v>0.04984522235776929</v>
+        <v>0.04984522235776944</v>
       </c>
       <c r="M64">
-        <v>482.2795866677735</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.04984522235776944</v>
+      </c>
+      <c r="N64">
+        <v>482.2795866677745</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>225.3994999149575</v>
+        <v>225.3994999149571</v>
       </c>
       <c r="B65">
-        <v>1283026.724131408</v>
+        <v>1283026.724131391</v>
       </c>
       <c r="C65">
-        <v>820.5997344914429</v>
+        <v>820.5997344914319</v>
       </c>
       <c r="D65">
-        <v>18307.46754509926</v>
+        <v>18307.46754509929</v>
       </c>
       <c r="E65">
-        <v>10178.17098884881</v>
+        <v>10178.17098884884</v>
       </c>
       <c r="F65">
-        <v>8684.729939264787</v>
+        <v>8684.729939264826</v>
       </c>
       <c r="G65">
-        <v>6.33743937714563</v>
+        <v>6.33743937714565</v>
       </c>
       <c r="H65">
-        <v>31.4410284321521</v>
+        <v>31.44102843215189</v>
       </c>
       <c r="I65">
-        <v>5.103094310070897E-09</v>
+        <v>5.103094310070823E-09</v>
       </c>
       <c r="J65">
-        <v>5.190458950446481E-09</v>
+        <v>5.190458950446436E-09</v>
       </c>
       <c r="K65">
-        <v>0.0002179919184164681</v>
+        <v>0.0002179919184164695</v>
       </c>
       <c r="L65">
-        <v>0.04905694301402014</v>
+        <v>0.04905694301402035</v>
       </c>
       <c r="M65">
-        <v>475.7865898507873</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.04905694301402035</v>
+      </c>
+      <c r="N65">
+        <v>475.7865898507891</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>227.4828495800481</v>
+        <v>227.4828495800476</v>
       </c>
       <c r="B66">
-        <v>1365690.162529693</v>
+        <v>1365690.16252969</v>
       </c>
       <c r="C66">
-        <v>873.1725971538264</v>
+        <v>873.1725971538272</v>
       </c>
       <c r="D66">
-        <v>18171.95563903281</v>
+        <v>18171.95563903285</v>
       </c>
       <c r="E66">
-        <v>10061.59691105884</v>
+        <v>10061.59691105886</v>
       </c>
       <c r="F66">
-        <v>8572.695411803805</v>
+        <v>8572.695411803821</v>
       </c>
       <c r="G66">
-        <v>6.283614690956347</v>
+        <v>6.283614690956328</v>
       </c>
       <c r="H66">
-        <v>32.11823554619632</v>
+        <v>32.11823554619613</v>
       </c>
       <c r="I66">
-        <v>5.369352391901715E-09</v>
+        <v>5.36935239190165E-09</v>
       </c>
       <c r="J66">
-        <v>5.363481561908438E-09</v>
+        <v>5.363481561908399E-09</v>
       </c>
       <c r="K66">
-        <v>0.0002123169589079026</v>
+        <v>0.0002123169589079039</v>
       </c>
       <c r="L66">
-        <v>0.04827406053698784</v>
+        <v>0.04827406053698803</v>
       </c>
       <c r="M66">
-        <v>469.2466523040754</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.04827406053698803</v>
+      </c>
+      <c r="N66">
+        <v>469.2466523040771</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>229.5661992451386</v>
+        <v>229.5661992451382</v>
       </c>
       <c r="B67">
-        <v>1452101.578305492</v>
+        <v>1452101.578305485</v>
       </c>
       <c r="C67">
-        <v>928.4950377050745</v>
+        <v>928.4950377050721</v>
       </c>
       <c r="D67">
-        <v>18034.14015572852</v>
+        <v>18034.14015572855</v>
       </c>
       <c r="E67">
-        <v>9941.623028228318</v>
+        <v>9941.623028228338</v>
       </c>
       <c r="F67">
-        <v>8458.212258906115</v>
+        <v>8458.212258906136</v>
       </c>
       <c r="G67">
-        <v>6.229875823092716</v>
+        <v>6.229875823092691</v>
       </c>
       <c r="H67">
-        <v>32.83770089530724</v>
+        <v>32.83770089530703</v>
       </c>
       <c r="I67">
-        <v>5.657496111281817E-09</v>
+        <v>5.657496111281734E-09</v>
       </c>
       <c r="J67">
-        <v>5.541310841988214E-09</v>
+        <v>5.541310841988169E-09</v>
       </c>
       <c r="K67">
-        <v>0.0002067783114112417</v>
+        <v>0.0002067783114112432</v>
       </c>
       <c r="L67">
-        <v>0.04749497738286826</v>
+        <v>0.04749497738286847</v>
       </c>
       <c r="M67">
-        <v>462.6572338380587</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.04749497738286847</v>
+      </c>
+      <c r="N67">
+        <v>462.6572338380612</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>231.6495489102291</v>
+        <v>231.6495489102287</v>
       </c>
       <c r="B68">
-        <v>1542357.731909296</v>
+        <v>1542357.731909262</v>
       </c>
       <c r="C68">
-        <v>986.7147791384493</v>
+        <v>986.7147791384248</v>
       </c>
       <c r="D68">
-        <v>17893.89999231749</v>
+        <v>17893.89999231752</v>
       </c>
       <c r="E68">
-        <v>9818.089822305996</v>
+        <v>9818.089822306023</v>
       </c>
       <c r="F68">
-        <v>8341.160250444802</v>
+        <v>8341.160250444829</v>
       </c>
       <c r="G68">
-        <v>6.176271738105334</v>
+        <v>6.176271738105365</v>
       </c>
       <c r="H68">
-        <v>33.60212311464629</v>
+        <v>33.60212311464604</v>
       </c>
       <c r="I68">
-        <v>5.969903896180041E-09</v>
+        <v>5.969903896179942E-09</v>
       </c>
       <c r="J68">
-        <v>5.724245363083195E-09</v>
+        <v>5.724245363083154E-09</v>
       </c>
       <c r="K68">
-        <v>0.0002013698424689949</v>
+        <v>0.0002013698424689963</v>
       </c>
       <c r="L68">
-        <v>0.04671823135313971</v>
+        <v>0.04671823135313993</v>
       </c>
       <c r="M68">
-        <v>456.0158855032506</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.04671823135313993</v>
+      </c>
+      <c r="N68">
+        <v>456.0158855032525</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>233.7328985753197</v>
+        <v>233.7328985753192</v>
       </c>
       <c r="B69">
-        <v>1636556.576587911</v>
+        <v>1636556.576587884</v>
       </c>
       <c r="C69">
-        <v>1047.992855632322</v>
+        <v>1047.992855632304</v>
       </c>
       <c r="D69">
-        <v>17751.10896188969</v>
+        <v>17751.10896188973</v>
       </c>
       <c r="E69">
-        <v>9690.825671036409</v>
+        <v>9690.825671036428</v>
       </c>
       <c r="F69">
-        <v>8221.409848986088</v>
+        <v>8221.409848986103</v>
       </c>
       <c r="G69">
-        <v>6.122865242641161</v>
+        <v>6.122865242641182</v>
       </c>
       <c r="H69">
-        <v>34.41456265612159</v>
+        <v>34.41456265612134</v>
       </c>
       <c r="I69">
-        <v>6.309280310386516E-09</v>
+        <v>6.309280310386424E-09</v>
       </c>
       <c r="J69">
-        <v>5.912611524019778E-09</v>
+        <v>5.912611524019732E-09</v>
       </c>
       <c r="K69">
-        <v>0.0001960857038652005</v>
+        <v>0.0001960857038652017</v>
       </c>
       <c r="L69">
-        <v>0.04594251327472352</v>
+        <v>0.04594251327472372</v>
       </c>
       <c r="M69">
-        <v>449.3202402132696</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.04594251327472372</v>
+      </c>
+      <c r="N69">
+        <v>449.3202402132712</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>235.8162482404102</v>
+        <v>235.8162482404097</v>
       </c>
       <c r="B70">
-        <v>1734797.451431561</v>
+        <v>1734797.451431536</v>
       </c>
       <c r="C70">
-        <v>1112.505417803183</v>
+        <v>1112.505417803166</v>
       </c>
       <c r="D70">
-        <v>17605.63533153155</v>
+        <v>17605.63533153158</v>
       </c>
       <c r="E70">
         <v>9559.645434094</v>
       </c>
       <c r="F70">
-        <v>8098.821019097368</v>
+        <v>8098.82101909737</v>
       </c>
       <c r="G70">
-        <v>6.069732786355438</v>
+        <v>6.06973278635542</v>
       </c>
       <c r="H70">
-        <v>35.2784936696881</v>
+        <v>35.27849366968778</v>
       </c>
       <c r="I70">
-        <v>6.678711343183186E-09</v>
+        <v>6.67871134318307E-09</v>
       </c>
       <c r="J70">
-        <v>6.106765294318733E-09</v>
+        <v>6.106765294318685E-09</v>
       </c>
       <c r="K70">
-        <v>0.0001909202788277148</v>
+        <v>0.0001909202788277162</v>
       </c>
       <c r="L70">
-        <v>0.04516667972837524</v>
+        <v>0.04516667972837545</v>
       </c>
       <c r="M70">
-        <v>442.5680014095467</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.04516667972837545</v>
+      </c>
+      <c r="N70">
+        <v>442.568001409549</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>237.8995979055007</v>
+        <v>237.8995979055003</v>
       </c>
       <c r="B71">
-        <v>1837181.302393517</v>
+        <v>1837181.302393487</v>
       </c>
       <c r="C71">
-        <v>1180.445801701917</v>
+        <v>1180.445801701896</v>
       </c>
       <c r="D71">
-        <v>17457.34131441453</v>
+        <v>17457.34131441455</v>
       </c>
       <c r="E71">
-        <v>9424.348916792305</v>
+        <v>9424.348916792327</v>
       </c>
       <c r="F71">
-        <v>7973.241915675271</v>
+        <v>7973.241915675279</v>
       </c>
       <c r="G71">
-        <v>6.01696445711884</v>
+        <v>6.016964457118888</v>
       </c>
       <c r="H71">
-        <v>36.19786758557232</v>
+        <v>36.19786758557235</v>
       </c>
       <c r="I71">
-        <v>7.081731189610206E-09</v>
+        <v>7.081731189610175E-09</v>
       </c>
       <c r="J71">
-        <v>6.307094184485889E-09</v>
+        <v>6.307094184485851E-09</v>
       </c>
       <c r="K71">
-        <v>0.0001858681380742044</v>
+        <v>0.0001858681380742051</v>
       </c>
       <c r="L71">
-        <v>0.04438976261042408</v>
+        <v>0.04438976261042417</v>
       </c>
       <c r="M71">
-        <v>435.7569297112017</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.04438976261042417</v>
+      </c>
+      <c r="N71">
+        <v>435.7569297112019</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>239.9829475705913</v>
+        <v>239.9829475705908</v>
       </c>
       <c r="B72">
-        <v>1943810.932440242</v>
+        <v>1943810.932440205</v>
       </c>
       <c r="C72">
-        <v>1252.026897746185</v>
+        <v>1252.026897746158</v>
       </c>
       <c r="D72">
-        <v>17306.08250403386</v>
+        <v>17306.0825040339</v>
       </c>
       <c r="E72">
-        <v>9284.719204429368</v>
+        <v>9284.719204429399</v>
       </c>
       <c r="F72">
-        <v>7844.507439246315</v>
+        <v>7844.507439246347</v>
       </c>
       <c r="G72">
-        <v>5.964664155253194</v>
+        <v>5.964664155253162</v>
       </c>
       <c r="H72">
-        <v>37.17719132581856</v>
+        <v>37.1771913258181</v>
       </c>
       <c r="I72">
-        <v>7.52240341227822E-09</v>
+        <v>7.522403412278063E-09</v>
       </c>
       <c r="J72">
-        <v>6.514019486426635E-09</v>
+        <v>6.514019486426578E-09</v>
       </c>
       <c r="K72">
-        <v>0.0001809240051674803</v>
+        <v>0.0001809240051674816</v>
       </c>
       <c r="L72">
-        <v>0.04361097665162691</v>
+        <v>0.04361097665162714</v>
       </c>
       <c r="M72">
-        <v>428.8848274518247</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.04361097665162714</v>
+      </c>
+      <c r="N72">
+        <v>428.8848274518273</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>242.0662972356818</v>
+        <v>242.0662972356813</v>
       </c>
       <c r="B73">
-        <v>2054791.281327123</v>
+        <v>2054791.281327088</v>
       </c>
       <c r="C73">
-        <v>1327.483858624329</v>
+        <v>1327.483858624303</v>
       </c>
       <c r="D73">
-        <v>17151.70723519282</v>
+        <v>17151.70723519285</v>
       </c>
       <c r="E73">
-        <v>9140.5208631472</v>
+        <v>9140.520863147232</v>
       </c>
       <c r="F73">
-        <v>7712.437646916422</v>
+        <v>7712.43764691645</v>
       </c>
       <c r="G73">
-        <v>5.912949934623021</v>
+        <v>5.912949934623033</v>
       </c>
       <c r="H73">
-        <v>38.22162394258413</v>
+        <v>38.22162394258386</v>
       </c>
       <c r="I73">
-        <v>8.005420237800966E-09</v>
+        <v>8.005420237800855E-09</v>
       </c>
       <c r="J73">
-        <v>6.72799883832232E-09</v>
+        <v>6.727998838322276E-09</v>
       </c>
       <c r="K73">
-        <v>0.0001760827306020609</v>
+        <v>0.0001760827306020619</v>
       </c>
       <c r="L73">
-        <v>0.0428297254690166</v>
+        <v>0.04282972546901676</v>
       </c>
       <c r="M73">
-        <v>421.94952096867</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.04282972546901676</v>
+      </c>
+      <c r="N73">
+        <v>421.9495209686714</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>244.1496469007723</v>
+        <v>244.1496469007718</v>
       </c>
       <c r="B74">
-        <v>2170229.734436859</v>
+        <v>2170229.734436855</v>
       </c>
       <c r="C74">
-        <v>1407.077186831481</v>
+        <v>1407.077186831485</v>
       </c>
       <c r="D74">
-        <v>16994.05585173177</v>
+        <v>16994.05585173182</v>
       </c>
       <c r="E74">
-        <v>8991.498008124696</v>
+        <v>8991.49800812471</v>
       </c>
       <c r="F74">
-        <v>7576.83600972978</v>
+        <v>7576.8360097298</v>
       </c>
       <c r="G74">
-        <v>5.861954501357377</v>
+        <v>5.861954501357423</v>
       </c>
       <c r="H74">
-        <v>39.33709663196591</v>
+        <v>39.3370966319656</v>
       </c>
       <c r="I74">
-        <v>8.536224900873949E-09</v>
+        <v>8.536224900873792E-09</v>
       </c>
       <c r="J74">
-        <v>6.949529181836018E-09</v>
+        <v>6.94952918183596E-09</v>
       </c>
       <c r="K74">
-        <v>0.0001713392739838012</v>
+        <v>0.0001713392739838025</v>
       </c>
       <c r="L74">
-        <v>0.04204560628947163</v>
+        <v>0.04204560628947183</v>
       </c>
       <c r="M74">
-        <v>414.9488404781275</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.04204560628947183</v>
+      </c>
+      <c r="N74">
+        <v>414.9488404781292</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>246.2329965658628</v>
+        <v>246.2329965658623</v>
       </c>
       <c r="B75">
-        <v>2290236.458493183</v>
+        <v>2290236.458493173</v>
       </c>
       <c r="C75">
-        <v>1491.096241802038</v>
+        <v>1491.096241802037</v>
       </c>
       <c r="D75">
-        <v>16832.95985496684</v>
+        <v>16832.95985496688</v>
       </c>
       <c r="E75">
-        <v>8837.372248059402</v>
+        <v>8837.372248059422</v>
       </c>
       <c r="F75">
-        <v>7437.487511471826</v>
+        <v>7437.487511471845</v>
       </c>
       <c r="G75">
-        <v>5.811825863926602</v>
+        <v>5.811825863926632</v>
       </c>
       <c r="H75">
-        <v>40.53046261036587</v>
+        <v>40.53046261036575</v>
       </c>
       <c r="I75">
-        <v>9.121163524066512E-09</v>
+        <v>9.1211635240664E-09</v>
       </c>
       <c r="J75">
-        <v>7.179150197426592E-09</v>
+        <v>7.17915019742654E-09</v>
       </c>
       <c r="K75">
-        <v>0.0001666886935839686</v>
+        <v>0.0001666886935839697</v>
       </c>
       <c r="L75">
-        <v>0.04125841314761435</v>
+        <v>0.04125841314761452</v>
       </c>
       <c r="M75">
-        <v>407.8805973429643</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.04125841314761452</v>
+      </c>
+      <c r="N75">
+        <v>407.8805973429656</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>248.3163462309534</v>
+        <v>248.3163462309529</v>
       </c>
       <c r="B76">
-        <v>2414924.759520281</v>
+        <v>2414924.759520245</v>
       </c>
       <c r="C76">
-        <v>1579.863201845708</v>
+        <v>1579.863201845681</v>
       </c>
       <c r="D76">
-        <v>16668.24089885565</v>
+        <v>16668.24089885569</v>
       </c>
       <c r="E76">
-        <v>8677.840527749024</v>
+        <v>8677.840527749071</v>
       </c>
       <c r="F76">
-        <v>7294.156591644338</v>
+        <v>7294.156591644379</v>
       </c>
       <c r="G76">
-        <v>5.762728131431493</v>
+        <v>5.76272813143152</v>
       </c>
       <c r="H76">
-        <v>41.80968541498626</v>
+        <v>41.80968541498584</v>
       </c>
       <c r="I76">
-        <v>9.767675181165113E-09</v>
+        <v>9.767675181164925E-09</v>
       </c>
       <c r="J76">
-        <v>7.417448327346447E-09</v>
+        <v>7.417448327346388E-09</v>
       </c>
       <c r="K76">
-        <v>0.0001621261424422252</v>
+        <v>0.0001621261424422262</v>
       </c>
       <c r="L76">
-        <v>0.04046813811462305</v>
+        <v>0.04046813811462325</v>
       </c>
       <c r="M76">
-        <v>400.7425585082777</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.04046813811462325</v>
+      </c>
+      <c r="N76">
+        <v>400.7425585082794</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
-        <v>250.3996958960439</v>
+        <v>250.3996958960434</v>
       </c>
       <c r="B77">
-        <v>2544411.454823136</v>
+        <v>2544411.454823096</v>
       </c>
       <c r="C77">
-        <v>1673.737504641319</v>
+        <v>1673.737504641288</v>
       </c>
       <c r="D77">
-        <v>16499.70958739311</v>
+        <v>16499.70958739316</v>
       </c>
       <c r="E77">
-        <v>8512.572910193168</v>
+        <v>8512.572910193216</v>
       </c>
       <c r="F77">
-        <v>7146.584948176119</v>
+        <v>7146.584948176164</v>
       </c>
       <c r="G77">
         <v>5.714842460612328</v>
       </c>
       <c r="H77">
-        <v>43.18407701756287</v>
+        <v>43.18407701756244</v>
       </c>
       <c r="I77">
-        <v>1.048453178482973E-08</v>
+        <v>1.048453178482953E-08</v>
       </c>
       <c r="J77">
-        <v>7.665061527663536E-09</v>
+        <v>7.665061527663468E-09</v>
       </c>
       <c r="K77">
-        <v>0.0001576468700518667</v>
+        <v>0.0001576468700518678</v>
       </c>
       <c r="L77">
-        <v>0.03967496994910356</v>
+        <v>0.03967496994910377</v>
       </c>
       <c r="M77">
-        <v>393.5324178474796</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.03967496994910377</v>
+      </c>
+      <c r="N77">
+        <v>393.5324178474816</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>252.4830455611344</v>
+        <v>252.4830455611339</v>
       </c>
       <c r="B78">
-        <v>2678817.245538685</v>
+        <v>2678817.245538686</v>
       </c>
       <c r="C78">
-        <v>1773.120767973541</v>
+        <v>1773.120767973552</v>
       </c>
       <c r="D78">
-        <v>16327.16401572829</v>
+        <v>16327.16401572834</v>
       </c>
       <c r="E78">
-        <v>8341.210368664899</v>
+        <v>8341.210368664893</v>
       </c>
       <c r="F78">
-        <v>6994.489235789844</v>
+        <v>6994.489235789853</v>
       </c>
       <c r="G78">
-        <v>5.668368156631017</v>
+        <v>5.668368156630978</v>
       </c>
       <c r="H78">
-        <v>44.66460104000799</v>
+        <v>44.66460104000728</v>
       </c>
       <c r="I78">
-        <v>1.128214363436451E-08</v>
+        <v>1.12821436343642E-08</v>
       </c>
       <c r="J78">
-        <v>7.922684933314216E-09</v>
+        <v>7.92268493331414E-09</v>
       </c>
       <c r="K78">
-        <v>0.0001532462284752562</v>
+        <v>0.0001532462284752575</v>
       </c>
       <c r="L78">
-        <v>0.03887928946861879</v>
+        <v>0.03887928946861904</v>
       </c>
       <c r="M78">
-        <v>386.2477641050396</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.03887928946861904</v>
+      </c>
+      <c r="N78">
+        <v>386.2477641050427</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
-        <v>254.566395226225</v>
+        <v>254.5663952262244</v>
       </c>
       <c r="B79">
-        <v>2818267.068838686</v>
+        <v>2818267.068838645</v>
       </c>
       <c r="C79">
-        <v>1878.462154134404</v>
+        <v>1878.462154134372</v>
       </c>
       <c r="D79">
-        <v>16150.38797764705</v>
+        <v>16150.38797764711</v>
       </c>
       <c r="E79">
-        <v>8163.362700818762</v>
+        <v>8163.362700818802</v>
       </c>
       <c r="F79">
-        <v>6837.558726887292</v>
+        <v>6837.558726887332</v>
       </c>
       <c r="G79">
-        <v>5.623523938801767</v>
+        <v>5.623523938801772</v>
       </c>
       <c r="H79">
-        <v>46.26426181011888</v>
+        <v>46.26426181011818</v>
       </c>
       <c r="I79">
-        <v>1.217295241274228E-08</v>
+        <v>1.217295241274194E-08</v>
       </c>
       <c r="J79">
-        <v>8.191077677955553E-09</v>
+        <v>8.191077677955472E-09</v>
       </c>
       <c r="K79">
-        <v>0.000148919681494843</v>
+        <v>0.0001489196814948444</v>
       </c>
       <c r="L79">
-        <v>0.0380816609141188</v>
+        <v>0.03808166091411905</v>
       </c>
       <c r="M79">
-        <v>378.886045027755</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.03808166091411905</v>
+      </c>
+      <c r="N79">
+        <v>378.8860450277576</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>256.6497448913155</v>
+        <v>256.6497448913149</v>
       </c>
       <c r="B80">
-        <v>2962890.398332343</v>
+        <v>2962890.39833234</v>
       </c>
       <c r="C80">
-        <v>1990.26407933359</v>
+        <v>1990.2640793336</v>
       </c>
       <c r="D80">
-        <v>15969.14873640877</v>
+        <v>15969.14873640882</v>
       </c>
       <c r="E80">
-        <v>7978.606734434024</v>
+        <v>7978.606734434041</v>
       </c>
       <c r="F80">
-        <v>6675.453046996658</v>
+        <v>6675.453046996678</v>
       </c>
       <c r="G80">
-        <v>5.580549391051872</v>
+        <v>5.580549391051927</v>
       </c>
       <c r="H80">
-        <v>47.99860772363879</v>
+        <v>47.99860772363843</v>
       </c>
       <c r="I80">
-        <v>1.317194198607575E-08</v>
+        <v>1.31719419860755E-08</v>
       </c>
       <c r="J80">
-        <v>8.47107118935067E-09</v>
+        <v>8.471071189350597E-09</v>
       </c>
       <c r="K80">
-        <v>0.0001446628150885719</v>
+        <v>0.000144662815088573</v>
       </c>
       <c r="L80">
-        <v>0.03728281861188489</v>
+        <v>0.03728281861188511</v>
       </c>
       <c r="M80">
-        <v>371.444527105713</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.03728281861188511</v>
+      </c>
+      <c r="N80">
+        <v>371.4445271057144</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>258.733094556406</v>
+        <v>258.7330945564054</v>
       </c>
       <c r="B81">
-        <v>3112821.446645117</v>
+        <v>3112821.446645073</v>
       </c>
       <c r="C81">
-        <v>2109.088073986667</v>
+        <v>2109.088073986632</v>
       </c>
       <c r="D81">
-        <v>15783.19422050348</v>
+        <v>15783.19422050355</v>
       </c>
       <c r="E81">
-        <v>7786.485070133789</v>
+        <v>7786.485070133834</v>
       </c>
       <c r="F81">
-        <v>6507.80015984574</v>
+        <v>6507.800159845781</v>
       </c>
       <c r="G81">
-        <v>5.539706629467212</v>
+        <v>5.539706629467233</v>
       </c>
       <c r="H81">
-        <v>49.88638851746219</v>
+        <v>49.88638851746134</v>
       </c>
       <c r="I81">
-        <v>1.429730986327981E-08</v>
+        <v>1.429730986327935E-08</v>
       </c>
       <c r="J81">
-        <v>8.763579390240372E-09</v>
+        <v>8.763579390240268E-09</v>
       </c>
       <c r="K81">
-        <v>0.0001404713471053405</v>
+        <v>0.000140471347105342</v>
       </c>
       <c r="L81">
-        <v>0.03648364831841102</v>
+        <v>0.03648364831841131</v>
       </c>
       <c r="M81">
-        <v>363.9202500404277</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.03648364831841131</v>
+      </c>
+      <c r="N81">
+        <v>363.9202500404305</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>260.8164442214965</v>
+        <v>260.816444221496</v>
       </c>
       <c r="B82">
-        <v>3268199.20443249</v>
+        <v>3268199.204432375</v>
       </c>
       <c r="C82">
-        <v>2235.560460371843</v>
+        <v>2235.560460371718</v>
       </c>
       <c r="D82">
-        <v>15592.24945620409</v>
+        <v>15592.24945620412</v>
       </c>
       <c r="E82">
-        <v>7586.50569911904</v>
+        <v>7586.505699119176</v>
       </c>
       <c r="F82">
-        <v>6334.194859913229</v>
+        <v>6334.194859913328</v>
       </c>
       <c r="G82">
-        <v>5.50128223802582</v>
+        <v>5.501282238025821</v>
       </c>
       <c r="H82">
-        <v>51.95042240068216</v>
+        <v>51.95042240068192</v>
       </c>
       <c r="I82">
-        <v>1.557136073413036E-08</v>
+        <v>1.557136073413016E-08</v>
       </c>
       <c r="J82">
-        <v>9.069611387798695E-09</v>
+        <v>9.069611387798629E-09</v>
       </c>
       <c r="K82">
-        <v>0.0001363411334748792</v>
+        <v>0.0001363411334748799</v>
       </c>
       <c r="L82">
-        <v>0.0356851627474036</v>
+        <v>0.03568516274740374</v>
       </c>
       <c r="M82">
-        <v>356.309974529805</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.03568516274740374</v>
+      </c>
+      <c r="N82">
+        <v>356.3099745298063</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>262.8997938865871</v>
+        <v>262.8997938865865</v>
       </c>
       <c r="B83">
-        <v>3429167.224242479</v>
+        <v>3429167.224242455</v>
       </c>
       <c r="C83">
-        <v>2370.377322975509</v>
+        <v>2370.377322975499</v>
       </c>
       <c r="D83">
-        <v>15396.01197788579</v>
+        <v>15396.01197788586</v>
       </c>
       <c r="E83">
-        <v>7378.14293355072</v>
+        <v>7378.142933550767</v>
       </c>
       <c r="F83">
-        <v>6154.198129429142</v>
+        <v>6154.19812942919</v>
       </c>
       <c r="G83">
-        <v>5.465589552039205</v>
+        <v>5.465589552039209</v>
       </c>
       <c r="H83">
-        <v>54.21875343564006</v>
+        <v>54.21875343563906</v>
       </c>
       <c r="I83">
-        <v>1.702171155710186E-08</v>
+        <v>1.702171155710126E-08</v>
       </c>
       <c r="J83">
-        <v>9.390287452853012E-09</v>
+        <v>9.390287452852895E-09</v>
       </c>
       <c r="K83">
-        <v>0.0001322681675716392</v>
+        <v>0.0001322681675716407</v>
       </c>
       <c r="L83">
-        <v>0.03488847090188404</v>
+        <v>0.03488847090188432</v>
       </c>
       <c r="M83">
-        <v>348.6101210670587</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.03488847090188432</v>
+      </c>
+      <c r="N83">
+        <v>348.6101210670617</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
-        <v>264.9831435516776</v>
+        <v>264.983143551677</v>
       </c>
       <c r="B84">
-        <v>3595873.025276316</v>
+        <v>3595873.025276281</v>
       </c>
       <c r="C84">
-        <v>2514.308006979455</v>
+        <v>2514.308006979431</v>
       </c>
       <c r="D84">
-        <v>15194.14585418167</v>
+        <v>15194.14585418173</v>
       </c>
       <c r="E84">
-        <v>7160.840165210473</v>
+        <v>7160.840165210535</v>
       </c>
       <c r="F84">
-        <v>5967.337816166207</v>
+        <v>5967.337816166271</v>
       </c>
       <c r="G84">
-        <v>5.432971412319004</v>
+        <v>5.432971412318975</v>
       </c>
       <c r="H84">
-        <v>56.72621690709755</v>
+        <v>56.72621690709632</v>
       </c>
       <c r="I84">
-        <v>1.8682940927647E-08</v>
+        <v>1.868294092764633E-08</v>
       </c>
       <c r="J84">
-        <v>9.726859405884197E-09</v>
+        <v>9.726859405884091E-09</v>
       </c>
       <c r="K84">
-        <v>0.0001282485683969443</v>
+        <v>0.0001282485683969455</v>
       </c>
       <c r="L84">
-        <v>0.03409474093579099</v>
+        <v>0.03409474093579124</v>
       </c>
       <c r="M84">
-        <v>340.8166959817975</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.03409474093579124</v>
+      </c>
+      <c r="N84">
+        <v>340.8166959818004</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>267.0664932167681</v>
+        <v>267.0664932167675</v>
       </c>
       <c r="B85">
-        <v>3768466.957385103</v>
+        <v>3768466.957385061</v>
       </c>
       <c r="C85">
-        <v>2668.196123069014</v>
+        <v>2668.196123068978</v>
       </c>
       <c r="D85">
-        <v>14986.27381623398</v>
+        <v>14986.27381623404</v>
       </c>
       <c r="E85">
-        <v>6934.014961288779</v>
+        <v>6934.014961288841</v>
       </c>
       <c r="F85">
-        <v>5773.111146176829</v>
+        <v>5773.111146176881</v>
       </c>
       <c r="G85">
-        <v>5.403803580236136</v>
+        <v>5.403803580236158</v>
       </c>
       <c r="H85">
-        <v>59.5165887914084</v>
+        <v>59.51658879140787</v>
       </c>
       <c r="I85">
-        <v>2.059888366115621E-08</v>
+        <v>2.059888366115567E-08</v>
       </c>
       <c r="J85">
-        <v>1.008073699245997E-08</v>
+        <v>1.008073699245985E-08</v>
       </c>
       <c r="K85">
-        <v>0.0001242785519471751</v>
+        <v>0.0001242785519471762</v>
       </c>
       <c r="L85">
-        <v>0.0333051563044925</v>
+        <v>0.03330515630449273</v>
       </c>
       <c r="M85">
-        <v>332.9251985954471</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.03330515630449273</v>
+      </c>
+      <c r="N85">
+        <v>332.9251985954494</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>269.1498428818586</v>
+        <v>269.1498428818581</v>
       </c>
       <c r="B86">
-        <v>3947100.324012904</v>
+        <v>3947100.324012833</v>
       </c>
       <c r="C86">
-        <v>2832.956852551219</v>
+        <v>2832.956852551137</v>
       </c>
       <c r="D86">
-        <v>14771.96674695261</v>
+        <v>14771.96674695265</v>
       </c>
       <c r="E86">
-        <v>6697.066792607847</v>
+        <v>6697.06679260793</v>
       </c>
       <c r="F86">
-        <v>5570.989513466452</v>
+        <v>5570.989513466513</v>
       </c>
       <c r="G86">
-        <v>5.378499108035415</v>
+        <v>5.37849910803543</v>
       </c>
       <c r="H86">
-        <v>62.6455889729663</v>
+        <v>62.64558897296612</v>
       </c>
       <c r="I86">
-        <v>2.282588172942688E-08</v>
+        <v>2.282588172942658E-08</v>
       </c>
       <c r="J86">
-        <v>1.045352252990718E-08</v>
+        <v>1.04535225299071E-08</v>
       </c>
       <c r="K86">
-        <v>0.0001203543783460792</v>
+        <v>0.0001203543783460799</v>
       </c>
       <c r="L86">
-        <v>0.03252086487434557</v>
+        <v>0.03252086487434572</v>
       </c>
       <c r="M86">
-        <v>324.9304996788512</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.03252086487434572</v>
+      </c>
+      <c r="N86">
+        <v>324.9304996788525</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>271.2331925469492</v>
+        <v>271.2331925469485</v>
       </c>
       <c r="B87">
-        <v>4131922.534399525</v>
+        <v>4131922.534399499</v>
       </c>
       <c r="C87">
-        <v>3009.569433099737</v>
+        <v>3009.569433099731</v>
       </c>
       <c r="D87">
-        <v>14550.72944493935</v>
+        <v>14550.72944493944</v>
       </c>
       <c r="E87">
-        <v>6449.387059924674</v>
+        <v>6449.387059924696</v>
       </c>
       <c r="F87">
-        <v>5360.425623658745</v>
+        <v>5360.425623658774</v>
       </c>
       <c r="G87">
-        <v>5.357514121049279</v>
+        <v>5.357514121049292</v>
       </c>
       <c r="H87">
-        <v>66.18516184946598</v>
+        <v>66.18516184946375</v>
       </c>
       <c r="I87">
-        <v>2.543748567776851E-08</v>
+        <v>2.543748567776702E-08</v>
       </c>
       <c r="J87">
-        <v>1.084705717645892E-08</v>
+        <v>1.084705717645875E-08</v>
       </c>
       <c r="K87">
-        <v>0.0001164722648036167</v>
+        <v>0.0001164722648036183</v>
       </c>
       <c r="L87">
-        <v>0.03174292037202346</v>
+        <v>0.03174292037202379</v>
       </c>
       <c r="M87">
-        <v>316.8266757782247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.03174292037202379</v>
+      </c>
+      <c r="N87">
+        <v>316.8266757782288</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>273.3165422120397</v>
+        <v>273.3165422120391</v>
       </c>
       <c r="B88">
-        <v>4323077.054149544</v>
+        <v>4323077.054149519</v>
       </c>
       <c r="C88">
-        <v>3199.064424471939</v>
+        <v>3199.064424471941</v>
       </c>
       <c r="D88">
-        <v>14321.98104512926</v>
+        <v>14321.98104512933</v>
       </c>
       <c r="E88">
-        <v>6190.369722790392</v>
+        <v>6190.36972279041</v>
       </c>
       <c r="F88">
-        <v>5140.862148384504</v>
+        <v>5140.862148384524</v>
       </c>
       <c r="G88">
-        <v>5.341355721811557</v>
+        <v>5.341355721811567</v>
       </c>
       <c r="H88">
-        <v>70.22971917139348</v>
+        <v>70.22971917139219</v>
       </c>
       <c r="I88">
-        <v>2.853141384617221E-08</v>
+        <v>2.853141384617116E-08</v>
       </c>
       <c r="J88">
-        <v>1.126348384144374E-08</v>
+        <v>1.126348384144362E-08</v>
       </c>
       <c r="K88">
-        <v>0.000112628250856853</v>
+        <v>0.0001126282508568542</v>
       </c>
       <c r="L88">
-        <v>0.03097221496206824</v>
+        <v>0.03097221496206847</v>
       </c>
       <c r="M88">
-        <v>308.6067755931207</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.03097221496206847</v>
+      </c>
+      <c r="N88">
+        <v>308.6067755931235</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>275.3998918771302</v>
+        <v>275.3998918771297</v>
       </c>
       <c r="B89">
-        <v>4520695.979475295</v>
+        <v>4520695.979475216</v>
       </c>
       <c r="C89">
-        <v>3402.507266496681</v>
+        <v>3402.507266496576</v>
       </c>
       <c r="D89">
-        <v>14085.02764577696</v>
+        <v>14085.02764577703</v>
       </c>
       <c r="E89">
-        <v>5919.418347777776</v>
+        <v>5919.418347777872</v>
       </c>
       <c r="F89">
-        <v>4911.739212571826</v>
+        <v>4911.739212571898</v>
       </c>
       <c r="G89">
-        <v>5.330593123091405</v>
+        <v>5.330593123091381</v>
       </c>
       <c r="H89">
-        <v>74.90548798276566</v>
+        <v>74.90548798276393</v>
       </c>
       <c r="I89">
-        <v>3.224013130938958E-08</v>
+        <v>3.224013130938835E-08</v>
       </c>
       <c r="J89">
-        <v>1.170533441006895E-08</v>
+        <v>1.170533441006883E-08</v>
       </c>
       <c r="K89">
-        <v>0.0001088179970356637</v>
+        <v>0.0001088179970356647</v>
       </c>
       <c r="L89">
-        <v>0.03020940069299124</v>
+        <v>0.03020940069299144</v>
       </c>
       <c r="M89">
-        <v>300.2624822789294</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.03020940069299144</v>
+      </c>
+      <c r="N89">
+        <v>300.2624822789319</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>277.4832415422207</v>
+        <v>277.4832415422201</v>
       </c>
       <c r="B90">
-        <v>4724893.211992154</v>
+        <v>4724893.211992216</v>
       </c>
       <c r="C90">
-        <v>3620.983451239842</v>
+        <v>3620.983451240008</v>
       </c>
       <c r="D90">
-        <v>13839.02335959198</v>
+        <v>13839.0233595921</v>
       </c>
       <c r="E90">
-        <v>5635.94142315547</v>
+        <v>5635.941423155386</v>
       </c>
       <c r="F90">
-        <v>4672.494909388068</v>
+        <v>4672.494909388028</v>
       </c>
       <c r="G90">
-        <v>5.325873743413977</v>
+        <v>5.325873743413981</v>
       </c>
       <c r="H90">
-        <v>80.3849403572038</v>
+        <v>80.38494035720016</v>
       </c>
       <c r="I90">
-        <v>3.6747430958305E-08</v>
+        <v>3.674743095830217E-08</v>
       </c>
       <c r="J90">
-        <v>1.217565328842058E-08</v>
+        <v>1.217565328842036E-08</v>
       </c>
       <c r="K90">
-        <v>0.0001050364899907429</v>
+        <v>0.0001050364899907447</v>
       </c>
       <c r="L90">
-        <v>0.02945479579735785</v>
+        <v>0.02945479579735821</v>
       </c>
       <c r="M90">
-        <v>291.7836175644381</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.02945479579735821</v>
+      </c>
+      <c r="N90">
+        <v>291.7836175644427</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>279.5665912073113</v>
+        <v>279.5665912073106</v>
       </c>
       <c r="B91">
-        <v>4935756.486472812</v>
+        <v>4935756.486472713</v>
       </c>
       <c r="C91">
-        <v>3855.596932195123</v>
+        <v>3855.596932194976</v>
       </c>
       <c r="D91">
-        <v>13582.91379981975</v>
+        <v>13582.91379981982</v>
       </c>
       <c r="E91">
-        <v>5339.322252450571</v>
+        <v>5339.322252450718</v>
       </c>
       <c r="F91">
-        <v>4422.548401248952</v>
+        <v>4422.548401249068</v>
       </c>
       <c r="G91">
-        <v>5.327947008063505</v>
+        <v>5.327947008063514</v>
       </c>
       <c r="H91">
-        <v>86.90986682884596</v>
+        <v>86.90986682884477</v>
       </c>
       <c r="I91">
-        <v>4.23153617652526E-08</v>
+        <v>4.23153617652512E-08</v>
       </c>
       <c r="J91">
-        <v>1.267817657805566E-08</v>
+        <v>1.26781765780555E-08</v>
       </c>
       <c r="K91">
-        <v>0.0001012776139683817</v>
+        <v>0.0001012776139683827</v>
       </c>
       <c r="L91">
-        <v>0.02870826887843741</v>
+        <v>0.02870826887843762</v>
       </c>
       <c r="M91">
-        <v>283.1574063505069</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.02870826887843762</v>
+      </c>
+      <c r="N91">
+        <v>283.1574063505091</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>281.6499408724018</v>
+        <v>281.6499408724012</v>
       </c>
       <c r="B92">
-        <v>5153338.901401319</v>
+        <v>5153338.901401266</v>
       </c>
       <c r="C92">
-        <v>4107.502297956501</v>
+        <v>4107.502297956455</v>
       </c>
       <c r="D92">
-        <v>13315.35218329198</v>
+        <v>13315.35218329208</v>
       </c>
       <c r="E92">
-        <v>5028.842993640031</v>
+        <v>5028.842993640118</v>
       </c>
       <c r="F92">
-        <v>4161.2491499034</v>
+        <v>4161.249149903481</v>
       </c>
       <c r="G92">
-        <v>5.33770028346478</v>
+        <v>5.337700283464773</v>
       </c>
       <c r="H92">
-        <v>94.82982553251132</v>
+        <v>94.82982553250764</v>
       </c>
       <c r="I92">
-        <v>4.932982272866076E-08</v>
+        <v>4.932982272865757E-08</v>
       </c>
       <c r="J92">
-        <v>1.321759902200875E-08</v>
+        <v>1.321759902200855E-08</v>
       </c>
       <c r="K92">
-        <v>9.753352562136114E-05</v>
+        <v>9.753352562136253E-05</v>
       </c>
       <c r="L92">
-        <v>0.02796908888232155</v>
+        <v>0.02796908888232181</v>
       </c>
       <c r="M92">
-        <v>274.3673764537792</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.02796908888232181</v>
+      </c>
+      <c r="N92">
+        <v>274.3673764537828</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>283.7332905374923</v>
+        <v>283.7332905374917</v>
       </c>
       <c r="B93">
-        <v>5377651.040619574</v>
+        <v>5377651.040619517</v>
       </c>
       <c r="C93">
-        <v>4378.002300830937</v>
+        <v>4378.002300830874</v>
       </c>
       <c r="D93">
-        <v>13034.57116450085</v>
+        <v>13034.57116450094</v>
       </c>
       <c r="E93">
-        <v>4703.534806591093</v>
+        <v>4703.534806591202</v>
       </c>
       <c r="F93">
-        <v>3887.768671696283</v>
+        <v>3887.768671696379</v>
       </c>
       <c r="G93">
-        <v>5.356214358884452</v>
+        <v>5.356214358884444</v>
       </c>
       <c r="H93">
-        <v>104.6694333500556</v>
+        <v>104.6694333500528</v>
       </c>
       <c r="I93">
-        <v>5.838169110573121E-08</v>
+        <v>5.838169110572815E-08</v>
       </c>
       <c r="J93">
-        <v>1.379998466466242E-08</v>
+        <v>1.379998466466223E-08</v>
       </c>
       <c r="K93">
-        <v>9.379372576091945E-05</v>
+        <v>9.379372576092067E-05</v>
       </c>
       <c r="L93">
-        <v>0.0272357192812567</v>
+        <v>0.02723571928125693</v>
       </c>
       <c r="M93">
-        <v>265.3916885813155</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.02723571928125693</v>
+      </c>
+      <c r="N93">
+        <v>265.3916885813185</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>285.8166402025828</v>
+        <v>285.8166402025822</v>
       </c>
       <c r="B94">
-        <v>5608655.087047184</v>
+        <v>5608655.087047122</v>
       </c>
       <c r="C94">
-        <v>4668.756076391523</v>
+        <v>4668.756076391463</v>
       </c>
       <c r="D94">
-        <v>12738.17951043194</v>
+        <v>12738.17951043208</v>
       </c>
       <c r="E94">
-        <v>4361.915821301061</v>
+        <v>4361.915821301176</v>
       </c>
       <c r="F94">
-        <v>3600.901746206234</v>
+        <v>3600.901746206338</v>
       </c>
       <c r="G94">
-        <v>5.384851605411693</v>
+        <v>5.384851605411685</v>
       </c>
       <c r="H94">
-        <v>117.2533533918387</v>
+        <v>117.2533533918322</v>
       </c>
       <c r="I94">
-        <v>7.042015475614903E-08</v>
+        <v>7.04201547561426E-08</v>
       </c>
       <c r="J94">
-        <v>1.44334242884279E-08</v>
+        <v>1.443342428842761E-08</v>
       </c>
       <c r="K94">
-        <v>9.004363299127527E-05</v>
+        <v>9.004363299127699E-05</v>
       </c>
       <c r="L94">
-        <v>0.02650551627821075</v>
+        <v>0.02650551627821107</v>
       </c>
       <c r="M94">
-        <v>256.2005311045367</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.02650551627821107</v>
+      </c>
+      <c r="N94">
+        <v>256.2005311045411</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>287.8999898676734</v>
+        <v>287.8999898676728</v>
       </c>
       <c r="B95">
-        <v>5846262.304681129</v>
+        <v>5846262.304681072</v>
       </c>
       <c r="C95">
-        <v>4982.166469703223</v>
+        <v>4982.166469703169</v>
       </c>
       <c r="D95">
-        <v>12422.82269619496</v>
+        <v>12422.82269619506</v>
       </c>
       <c r="E95">
-        <v>4001.556493533639</v>
+        <v>4001.556493533724</v>
       </c>
       <c r="F95">
-        <v>3298.725321232591</v>
+        <v>3298.725321232668</v>
       </c>
       <c r="G95">
-        <v>5.425401895791103</v>
+        <v>5.425401895791087</v>
       </c>
       <c r="H95">
-        <v>133.9562990342466</v>
+        <v>133.9562990342392</v>
       </c>
       <c r="I95">
-        <v>8.706511832861612E-08</v>
+        <v>8.70651183286093E-08</v>
       </c>
       <c r="J95">
-        <v>1.512914348435443E-08</v>
+        <v>1.512914348435421E-08</v>
       </c>
       <c r="K95">
-        <v>8.626226956850621E-05</v>
+        <v>8.626226956850732E-05</v>
       </c>
       <c r="L95">
-        <v>0.02577425166307027</v>
+        <v>0.02577425166307048</v>
       </c>
       <c r="M95">
-        <v>246.7518592974765</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.02577425166307048</v>
+      </c>
+      <c r="N95">
+        <v>246.7518592974794</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>289.9833395327639</v>
+        <v>289.9833395327632</v>
       </c>
       <c r="B96">
-        <v>6090334.775755308</v>
+        <v>6090334.775755167</v>
       </c>
       <c r="C96">
-        <v>5322.07283804183</v>
+        <v>5322.072838041494</v>
       </c>
       <c r="D96">
-        <v>12083.5759661221</v>
+        <v>12083.57596612207</v>
       </c>
       <c r="E96">
-        <v>3618.349107622047</v>
+        <v>3618.349107622281</v>
       </c>
       <c r="F96">
-        <v>2978.012798665144</v>
+        <v>2978.012798665319</v>
       </c>
       <c r="G96">
-        <v>5.480338915253768</v>
+        <v>5.480338915253804</v>
       </c>
       <c r="H96">
-        <v>157.2530838991958</v>
+        <v>157.2530838992046</v>
       </c>
       <c r="I96">
-        <v>1.113082463805744E-07</v>
+        <v>1.113082463805817E-07</v>
       </c>
       <c r="J96">
-        <v>1.590350180377852E-08</v>
+        <v>1.590350180377854E-08</v>
       </c>
       <c r="K96">
-        <v>8.241820751207515E-05</v>
+        <v>8.241820751207482E-05</v>
       </c>
       <c r="L96">
-        <v>0.02503529135964578</v>
+        <v>0.02503529135964576</v>
       </c>
       <c r="M96">
-        <v>236.9839067713481</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.02503529135964576</v>
+      </c>
+      <c r="N96">
+        <v>236.9839067713461</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
-        <v>292.0666891978544</v>
+        <v>292.0666891978537</v>
       </c>
       <c r="B97">
-        <v>6340691.41579805</v>
+        <v>6340691.41579801</v>
       </c>
       <c r="C97">
-        <v>5695.048962436345</v>
+        <v>5695.048962436395</v>
       </c>
       <c r="D97">
-        <v>11712.7524227359</v>
+        <v>11712.7524227361</v>
       </c>
       <c r="E97">
-        <v>3205.170698542434</v>
+        <v>3205.170698542498</v>
       </c>
       <c r="F97">
-        <v>2633.151013077213</v>
+        <v>2633.151013077277</v>
       </c>
       <c r="G97">
-        <v>5.55331080158815</v>
+        <v>5.553310801588061</v>
       </c>
       <c r="H97">
-        <v>192.0938344593765</v>
+        <v>192.093834459353</v>
       </c>
       <c r="I97">
-        <v>1.493036433667221E-07</v>
+        <v>1.49303643366696E-07</v>
       </c>
       <c r="J97">
-        <v>1.678194842625431E-08</v>
+        <v>1.678194842625385E-08</v>
       </c>
       <c r="K97">
-        <v>7.846170003789396E-05</v>
+        <v>7.846170003789601E-05</v>
       </c>
       <c r="L97">
-        <v>0.02427803109820153</v>
+        <v>0.0242780310982019</v>
       </c>
       <c r="M97">
-        <v>226.800630406394</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.0242780310982019</v>
+      </c>
+      <c r="N97">
+        <v>226.8006304064</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
-        <v>294.1500388629449</v>
+        <v>294.1500388629443</v>
       </c>
       <c r="B98">
-        <v>6597117.363398405</v>
+        <v>6597117.363398664</v>
       </c>
       <c r="C98">
-        <v>6113.175155734735</v>
+        <v>6113.175155736333</v>
       </c>
       <c r="D98">
-        <v>11297.23321678678</v>
+        <v>11297.23321678769</v>
       </c>
       <c r="E98">
-        <v>2749.025571027024</v>
+        <v>2749.02557102645</v>
       </c>
       <c r="F98">
-        <v>2253.820442779589</v>
+        <v>2253.820442779229</v>
       </c>
       <c r="G98">
-        <v>5.650205152073612</v>
+        <v>5.650205152073139</v>
       </c>
       <c r="H98">
-        <v>250.029919068927</v>
+        <v>250.0299190686864</v>
       </c>
       <c r="I98">
-        <v>2.158697830324914E-07</v>
+        <v>2.158697830322304E-07</v>
       </c>
       <c r="J98">
-        <v>1.78079404308658E-08</v>
+        <v>1.780794043086369E-08</v>
       </c>
       <c r="K98">
-        <v>7.430713702977586E-05</v>
+        <v>7.430713702978497E-05</v>
       </c>
       <c r="L98">
-        <v>0.02348449725908635</v>
+        <v>0.02348449725908786</v>
       </c>
       <c r="M98">
-        <v>216.0392226114259</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.02348449725908786</v>
+      </c>
+      <c r="N98">
+        <v>216.0392226114546</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>296.2333885280355</v>
+        <v>296.2333885280348</v>
       </c>
       <c r="B99">
-        <v>6859375.222829187</v>
+        <v>6859375.222828926</v>
       </c>
       <c r="C99">
-        <v>6601.422843330675</v>
+        <v>6601.422843329207</v>
       </c>
       <c r="D99">
-        <v>10811.16139056955</v>
+        <v>10811.16139056912</v>
       </c>
       <c r="E99">
-        <v>2223.374639221431</v>
+        <v>2223.374639222091</v>
       </c>
       <c r="F99">
-        <v>1818.771002364958</v>
+        <v>1818.771002365432</v>
       </c>
       <c r="G99">
-        <v>5.781958850751521</v>
+        <v>5.781958850751837</v>
       </c>
       <c r="H99">
-        <v>365.7181640822735</v>
+        <v>365.7181640825257</v>
       </c>
       <c r="I99">
-        <v>3.571157741194426E-07</v>
+        <v>3.571157741197319E-07</v>
       </c>
       <c r="J99">
-        <v>1.90675016007316E-08</v>
+        <v>1.906750160073263E-08</v>
       </c>
       <c r="K99">
-        <v>6.97850451340181E-05</v>
+        <v>6.9785045134014E-05</v>
       </c>
       <c r="L99">
-        <v>0.02262033905948302</v>
+        <v>0.0226203390594824</v>
       </c>
       <c r="M99">
-        <v>204.3811346483886</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.0226203390594824</v>
+      </c>
+      <c r="N99">
+        <v>204.3811346483749</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>298.3167381931261</v>
+        <v>298.3167381931253</v>
       </c>
       <c r="B100">
-        <v>7127216.519708414</v>
+        <v>7127216.519708627</v>
       </c>
       <c r="C100">
-        <v>7226.417979484075</v>
+        <v>7226.417979487879</v>
       </c>
       <c r="D100">
-        <v>10187.22319401241</v>
+        <v>10187.22319401517</v>
       </c>
       <c r="E100">
-        <v>1558.092403860629</v>
+        <v>1558.092403859803</v>
       </c>
       <c r="F100">
-        <v>1271.443100639912</v>
+        <v>1271.443100639406</v>
       </c>
       <c r="G100">
-        <v>5.975133141219882</v>
+        <v>5.975133141218494</v>
       </c>
       <c r="H100">
-        <v>712.4125370354046</v>
+        <v>712.412537031527</v>
       </c>
       <c r="I100">
-        <v>8.145728400596339E-07</v>
+        <v>8.145728400546084E-07</v>
       </c>
       <c r="J100">
-        <v>2.078644057119503E-08</v>
+        <v>2.078644057118758E-08</v>
       </c>
       <c r="K100">
-        <v>6.445303055111464E-05</v>
+        <v>6.445303055113777E-05</v>
       </c>
       <c r="L100">
-        <v>0.02160047772983394</v>
+        <v>0.02160047772983777</v>
       </c>
       <c r="M100">
-        <v>191.0013090028057</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.02160047772983777</v>
+      </c>
+      <c r="N100">
+        <v>191.0013090028712</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>300.4000878582166</v>
+        <v>300.4000878582159</v>
       </c>
       <c r="B101">
-        <v>7400390.518049082</v>
+        <v>7400390.521119737</v>
       </c>
       <c r="C101">
-        <v>8736.804562246316</v>
+        <v>8736.476750148648</v>
       </c>
       <c r="D101">
-        <v>8740.78046930323</v>
+        <v>8741.093973995761</v>
       </c>
       <c r="E101">
-        <v>2.082271978393031</v>
+        <v>2.418144869857471</v>
       </c>
       <c r="F101">
-        <v>1.696981720818596</v>
+        <v>1.970706264063592</v>
       </c>
       <c r="G101">
-        <v>6.467058973198608</v>
+        <v>6.466954541029964</v>
       </c>
       <c r="H101">
-        <v>7703434.427584782</v>
+        <v>6613385.849672315</v>
       </c>
       <c r="I101">
-        <v>0.01263617130647615</v>
+        <v>0.01084729642318907</v>
       </c>
       <c r="J101">
-        <v>2.530701657202689E-08</v>
+        <v>2.53059399771307E-08</v>
       </c>
       <c r="K101">
-        <v>5.378288795983525E-05</v>
+        <v>5.378498018125809E-05</v>
       </c>
       <c r="L101">
-        <v>0.01960945969210245</v>
+        <v>0.01960983286061206</v>
       </c>
       <c r="M101">
-        <v>167.4801909369806</v>
+        <v>0.01960983286061206</v>
+      </c>
+      <c r="N101">
+        <v>167.4841398637477</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
